--- a/comparison.xlsx
+++ b/comparison.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="59">
   <si>
     <t>Event</t>
   </si>
@@ -64,13 +64,145 @@
   </si>
   <si>
     <t>boston_bombing</t>
+  </si>
+  <si>
+    <t>Iterations</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Threshold</t>
+  </si>
+  <si>
+    <t>2015_03_24_12</t>
+  </si>
+  <si>
+    <t>4U9525</t>
+  </si>
+  <si>
+    <t>charlotte</t>
+  </si>
+  <si>
+    <t>2015_05_02_08</t>
+  </si>
+  <si>
+    <t>chelyabinsk_meteor</t>
+  </si>
+  <si>
+    <t>2013_02_15_07</t>
+  </si>
+  <si>
+    <t>chibok_kidnap</t>
+  </si>
+  <si>
+    <t>2014_04_15_11</t>
+  </si>
+  <si>
+    <t>garissa</t>
+  </si>
+  <si>
+    <t>2015_04_02_06</t>
+  </si>
+  <si>
+    <t>MH17</t>
+  </si>
+  <si>
+    <t>2014_07_17_17</t>
+  </si>
+  <si>
+    <t>nepal_quake</t>
+  </si>
+  <si>
+    <t>2015_04_25_09</t>
+  </si>
+  <si>
+    <t>nepal_quake2</t>
+  </si>
+  <si>
+    <t>2015_05_12_09</t>
+  </si>
+  <si>
+    <t>peshawar_school</t>
+  </si>
+  <si>
+    <t>2014_12_16_09</t>
+  </si>
+  <si>
+    <t>qz8501</t>
+  </si>
+  <si>
+    <t>2014_12_28_05</t>
+  </si>
+  <si>
+    <t>savar_collapse</t>
+  </si>
+  <si>
+    <t>2013_04_24_10</t>
+  </si>
+  <si>
+    <t>typhoon_haiyan</t>
+  </si>
+  <si>
+    <t>2013_11_09_03</t>
+  </si>
+  <si>
+    <t>afghan_landslide</t>
+  </si>
+  <si>
+    <t>2014_05_02_14</t>
+  </si>
+  <si>
+    <t>ontake_eruption</t>
+  </si>
+  <si>
+    <t>2014_09_27_08</t>
+  </si>
+  <si>
+    <t>cyclone_phailin</t>
+  </si>
+  <si>
+    <t>2013_10_11_20</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>inf</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -89,13 +221,25 @@
       <name val="Schriftart für Textkörper"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
       <name val="Schriftart für Textkörper"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Schriftart für Textkörper"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Schriftart für Textkörper"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -114,8 +258,23 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -134,22 +293,75 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="6">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
     <cellStyle name="20% - Accent4" xfId="2" builtinId="42"/>
+    <cellStyle name="Accent4" xfId="5" builtinId="41"/>
+    <cellStyle name="Bad" xfId="4" builtinId="27"/>
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -479,74 +691,569 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N2"/>
+  <dimension ref="B1:S19"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="1"/>
-    <col min="2" max="2" width="13.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="10.625" style="1"/>
-    <col min="11" max="11" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.625" style="1"/>
+    <col min="1" max="1" width="10.625" style="10"/>
+    <col min="2" max="2" width="13.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="15" width="10.625" style="10"/>
+    <col min="16" max="16" width="12.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="10.625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="2:19" s="1" customFormat="1" ht="16">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="5"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="2:14">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:19">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="G2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+    </row>
+    <row r="3" spans="2:19">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="10">
+        <v>10</v>
+      </c>
+      <c r="E3" s="10">
+        <v>15</v>
+      </c>
+      <c r="G3" s="10">
+        <v>200</v>
+      </c>
+      <c r="H3" s="10">
+        <v>400</v>
+      </c>
+      <c r="I3" s="10">
+        <v>600</v>
+      </c>
+      <c r="J3" s="10">
+        <v>10</v>
+      </c>
+      <c r="K3" s="10">
+        <v>20</v>
+      </c>
+      <c r="L3" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19">
+      <c r="B4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="10">
+        <v>0</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0</v>
+      </c>
+      <c r="J4" s="10">
+        <v>0</v>
+      </c>
+      <c r="K4" s="10">
+        <v>1</v>
+      </c>
+      <c r="L4" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19">
+      <c r="B5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C5" s="12" t="s">
         <v>13</v>
       </c>
+      <c r="D5" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19">
+      <c r="B6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="2:19">
+      <c r="B7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19">
+      <c r="B8" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19">
+      <c r="B9" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19">
+      <c r="B10" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19">
+      <c r="B11" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19">
+      <c r="B12" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19">
+      <c r="B13" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19">
+      <c r="B14" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19">
+      <c r="B15" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19">
+      <c r="B16" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/comparison.xlsx
+++ b/comparison.xlsx
@@ -697,7 +697,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -739,12 +739,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -1057,7 +1051,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="130">
+  <cellStyleXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1083,7 +1077,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1189,7 +1184,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1248,7 +1243,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="4" applyBorder="1"/>
     <xf numFmtId="49" fontId="11" fillId="7" borderId="0" xfId="23" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="12" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="15" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1269,20 +1264,18 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="3" applyBorder="1"/>
     <xf numFmtId="49" fontId="11" fillId="7" borderId="4" xfId="23" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="11" fillId="7" borderId="0" xfId="23" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="25" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="22" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1290,8 +1283,8 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="21" xfId="4" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="21" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="11" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1320,11 +1313,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="7" borderId="20" xfId="23" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="3" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="130">
+  <cellStyles count="131">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
     <cellStyle name="20% - Accent2" xfId="24" builtinId="34"/>
-    <cellStyle name="20% - Accent4" xfId="25" builtinId="42"/>
     <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
     <cellStyle name="Bad" xfId="4" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
@@ -1335,58 +1328,59 @@
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
@@ -1397,58 +1391,59 @@
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="102" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="5" builtinId="20"/>
     <cellStyle name="Neutral" xfId="23" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1784,9 +1779,9 @@
   <dimension ref="A1:BG26"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="O26" sqref="O26"/>
+      <selection pane="topRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0"/>
@@ -1854,7 +1849,7 @@
       <c r="AD1" s="20"/>
       <c r="AE1" s="20"/>
       <c r="AF1" s="20"/>
-      <c r="AG1" s="67"/>
+      <c r="AG1" s="65"/>
       <c r="AH1" s="12"/>
       <c r="AI1" s="12"/>
       <c r="AJ1" s="20" t="s">
@@ -1913,52 +1908,52 @@
       </c>
       <c r="K2" s="26"/>
       <c r="L2" s="26"/>
-      <c r="M2" s="78" t="s">
+      <c r="M2" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="N2" s="75"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="80" t="s">
+      <c r="N2" s="73"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="78" t="s">
         <v>95</v>
       </c>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="78" t="s">
+      <c r="Q2" s="74"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="T2" s="79"/>
-      <c r="U2" s="80" t="s">
+      <c r="T2" s="77"/>
+      <c r="U2" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="V2" s="76"/>
-      <c r="W2" s="77"/>
-      <c r="X2" s="78" t="s">
+      <c r="V2" s="74"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="76" t="s">
         <v>102</v>
       </c>
-      <c r="Y2" s="79"/>
-      <c r="Z2" s="80" t="s">
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="AA2" s="76"/>
-      <c r="AB2" s="77"/>
-      <c r="AC2" s="82" t="s">
+      <c r="AA2" s="74"/>
+      <c r="AB2" s="75"/>
+      <c r="AC2" s="80" t="s">
         <v>103</v>
       </c>
-      <c r="AD2" s="79"/>
-      <c r="AE2" s="80" t="s">
+      <c r="AD2" s="77"/>
+      <c r="AE2" s="78" t="s">
         <v>98</v>
       </c>
-      <c r="AF2" s="76"/>
-      <c r="AG2" s="81"/>
-      <c r="AH2" s="74" t="s">
+      <c r="AF2" s="74"/>
+      <c r="AG2" s="79"/>
+      <c r="AH2" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="AI2" s="75"/>
-      <c r="AJ2" s="76" t="s">
+      <c r="AI2" s="73"/>
+      <c r="AJ2" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="AK2" s="76"/>
-      <c r="AL2" s="77"/>
+      <c r="AK2" s="74"/>
+      <c r="AL2" s="75"/>
       <c r="AM2" s="55"/>
       <c r="AN2" s="55"/>
       <c r="AO2" s="16" t="s">
@@ -2078,7 +2073,7 @@
       <c r="AF3" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AG3" s="68" t="s">
+      <c r="AG3" s="66" t="s">
         <v>61</v>
       </c>
       <c r="AH3" s="56" t="s">
@@ -2209,7 +2204,7 @@
       <c r="AD4" s="57"/>
       <c r="AE4" s="57"/>
       <c r="AF4" s="57"/>
-      <c r="AG4" s="69"/>
+      <c r="AG4" s="67"/>
       <c r="AH4" s="57"/>
       <c r="AI4" s="57"/>
       <c r="AL4" s="61"/>
@@ -2279,7 +2274,7 @@
       <c r="AD5" s="57"/>
       <c r="AE5" s="57"/>
       <c r="AF5" s="57"/>
-      <c r="AG5" s="69"/>
+      <c r="AG5" s="67"/>
       <c r="AH5" s="57"/>
       <c r="AI5" s="57"/>
       <c r="AL5" s="58"/>
@@ -2349,7 +2344,7 @@
       <c r="AD6" s="57"/>
       <c r="AE6" s="57"/>
       <c r="AF6" s="57"/>
-      <c r="AG6" s="69"/>
+      <c r="AG6" s="67"/>
       <c r="AH6" s="57"/>
       <c r="AI6" s="57"/>
       <c r="AL6" s="58"/>
@@ -2419,7 +2414,7 @@
       <c r="AD7" s="57"/>
       <c r="AE7" s="57"/>
       <c r="AF7" s="57"/>
-      <c r="AG7" s="69"/>
+      <c r="AG7" s="67"/>
       <c r="AH7" s="57"/>
       <c r="AI7" s="57"/>
       <c r="AL7" s="58"/>
@@ -2489,7 +2484,7 @@
       <c r="AD8" s="57"/>
       <c r="AE8" s="57"/>
       <c r="AF8" s="57"/>
-      <c r="AG8" s="69"/>
+      <c r="AG8" s="67"/>
       <c r="AH8" s="57"/>
       <c r="AI8" s="57"/>
       <c r="AL8" s="58"/>
@@ -2559,7 +2554,7 @@
       <c r="AD9" s="57"/>
       <c r="AE9" s="57"/>
       <c r="AF9" s="57"/>
-      <c r="AG9" s="69"/>
+      <c r="AG9" s="67"/>
       <c r="AH9" s="57"/>
       <c r="AI9" s="57"/>
       <c r="AL9" s="58"/>
@@ -2629,7 +2624,7 @@
       <c r="AD10" s="57"/>
       <c r="AE10" s="57"/>
       <c r="AF10" s="57"/>
-      <c r="AG10" s="69"/>
+      <c r="AG10" s="67"/>
       <c r="AH10" s="57"/>
       <c r="AI10" s="57"/>
       <c r="AL10" s="58"/>
@@ -2699,7 +2694,7 @@
       <c r="AD11" s="57"/>
       <c r="AE11" s="57"/>
       <c r="AF11" s="57"/>
-      <c r="AG11" s="69"/>
+      <c r="AG11" s="67"/>
       <c r="AH11" s="57"/>
       <c r="AI11" s="57"/>
       <c r="AL11" s="58"/>
@@ -2769,7 +2764,7 @@
       <c r="AD12" s="57"/>
       <c r="AE12" s="57"/>
       <c r="AF12" s="57"/>
-      <c r="AG12" s="69"/>
+      <c r="AG12" s="67"/>
       <c r="AH12" s="57"/>
       <c r="AI12" s="57"/>
       <c r="AL12" s="58"/>
@@ -2839,7 +2834,7 @@
       <c r="AD13" s="57"/>
       <c r="AE13" s="57"/>
       <c r="AF13" s="57"/>
-      <c r="AG13" s="69"/>
+      <c r="AG13" s="67"/>
       <c r="AH13" s="57"/>
       <c r="AI13" s="57"/>
       <c r="AL13" s="58"/>
@@ -2909,7 +2904,7 @@
       <c r="AD14" s="57"/>
       <c r="AE14" s="57"/>
       <c r="AF14" s="57"/>
-      <c r="AG14" s="69"/>
+      <c r="AG14" s="67"/>
       <c r="AH14" s="57"/>
       <c r="AI14" s="57"/>
       <c r="AL14" s="58"/>
@@ -2979,7 +2974,7 @@
       <c r="AD15" s="57"/>
       <c r="AE15" s="57"/>
       <c r="AF15" s="57"/>
-      <c r="AG15" s="69"/>
+      <c r="AG15" s="67"/>
       <c r="AH15" s="57"/>
       <c r="AI15" s="57"/>
       <c r="AL15" s="58"/>
@@ -3049,7 +3044,7 @@
       <c r="AD16" s="57"/>
       <c r="AE16" s="57"/>
       <c r="AF16" s="57"/>
-      <c r="AG16" s="69"/>
+      <c r="AG16" s="67"/>
       <c r="AH16" s="57"/>
       <c r="AI16" s="57"/>
       <c r="AL16" s="58"/>
@@ -3162,7 +3157,7 @@
       <c r="AF17" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="AG17" s="70" t="s">
+      <c r="AG17" s="68" t="s">
         <v>47</v>
       </c>
       <c r="AH17" s="34" t="s">
@@ -3325,7 +3320,7 @@
       <c r="AF18" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="AG18" s="70" t="s">
+      <c r="AG18" s="68" t="s">
         <v>47</v>
       </c>
       <c r="AH18" s="34" t="s">
@@ -3358,7 +3353,7 @@
       <c r="AQ18" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="AR18" s="73" t="s">
+      <c r="AR18" s="71" t="s">
         <v>47</v>
       </c>
       <c r="AS18" s="53" t="s">
@@ -3488,7 +3483,7 @@
       <c r="AF19" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="AG19" s="70" t="s">
+      <c r="AG19" s="68" t="s">
         <v>47</v>
       </c>
       <c r="AH19" s="34" t="s">
@@ -3506,7 +3501,7 @@
       <c r="AL19" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="AM19" s="73" t="s">
+      <c r="AM19" s="71" t="s">
         <v>47</v>
       </c>
       <c r="AN19" s="53" t="s">
@@ -3521,7 +3516,7 @@
       <c r="AQ19" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="AR19" s="73" t="s">
+      <c r="AR19" s="71" t="s">
         <v>47</v>
       </c>
       <c r="AS19" s="53" t="s">
@@ -3651,7 +3646,7 @@
       <c r="AF20" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="AG20" s="70" t="s">
+      <c r="AG20" s="68" t="s">
         <v>47</v>
       </c>
       <c r="AH20" s="34" t="s">
@@ -3684,7 +3679,7 @@
       <c r="AQ20" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="AR20" s="73" t="s">
+      <c r="AR20" s="71" t="s">
         <v>47</v>
       </c>
       <c r="AS20" s="53" t="s">
@@ -3814,7 +3809,7 @@
       <c r="AF21" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="AG21" s="70" t="s">
+      <c r="AG21" s="68" t="s">
         <v>47</v>
       </c>
       <c r="AH21" s="34" t="s">
@@ -3845,7 +3840,7 @@
       <c r="AQ21" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="AR21" s="73" t="s">
+      <c r="AR21" s="71" t="s">
         <v>47</v>
       </c>
       <c r="AS21" s="53" t="s">
@@ -3975,7 +3970,7 @@
       <c r="AF22" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="AG22" s="71" t="s">
+      <c r="AG22" s="69" t="s">
         <v>50</v>
       </c>
       <c r="AH22" s="34" t="s">
@@ -4006,7 +4001,7 @@
       <c r="AQ22" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="AR22" s="73" t="s">
+      <c r="AR22" s="71" t="s">
         <v>47</v>
       </c>
       <c r="AS22" s="53" t="s">
@@ -4136,7 +4131,7 @@
       <c r="AF23" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="AG23" s="72" t="s">
+      <c r="AG23" s="70" t="s">
         <v>47</v>
       </c>
       <c r="AH23" s="34" t="s">
@@ -4167,7 +4162,7 @@
       <c r="AQ23" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="AR23" s="73"/>
+      <c r="AR23" s="71"/>
       <c r="AS23" s="53"/>
       <c r="AT23" s="53" t="s">
         <v>47</v>
@@ -4293,7 +4288,7 @@
       <c r="AF24" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="AG24" s="72" t="s">
+      <c r="AG24" s="70" t="s">
         <v>47</v>
       </c>
       <c r="AH24" s="54" t="s">
@@ -4311,7 +4306,7 @@
       <c r="AL24" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="AM24" s="83" t="s">
+      <c r="AM24" s="81" t="s">
         <v>104</v>
       </c>
       <c r="AN24" s="54" t="s">
@@ -4452,7 +4447,7 @@
       <c r="AF25" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="AG25" s="72" t="s">
+      <c r="AG25" s="70" t="s">
         <v>47</v>
       </c>
       <c r="AH25" s="34" t="s">
@@ -4522,13 +4517,13 @@
       <c r="BD25"/>
     </row>
     <row r="26" spans="1:56">
-      <c r="B26" s="65" t="s">
+      <c r="B26" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="66" t="s">
+      <c r="C26" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="34" t="s">
         <v>66</v>
       </c>
       <c r="E26" s="4" t="s">
@@ -4615,7 +4610,7 @@
       <c r="AF26" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="AG26" s="72" t="s">
+      <c r="AG26" s="70" t="s">
         <v>47</v>
       </c>
       <c r="AH26" s="34" t="s">

--- a/comparison.xlsx
+++ b/comparison.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="26740" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="keywords-R" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -250,7 +251,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="112">
   <si>
     <t>Event</t>
   </si>
@@ -597,11 +598,35 @@
   <si>
     <t>x</t>
   </si>
+  <si>
+    <t>std dev</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>event</t>
+  </si>
+  <si>
+    <t>keyword</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>nepal</t>
+  </si>
+  <si>
+    <t>boston</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1051,7 +1076,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="131">
+  <cellStyleXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1183,8 +1208,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1205,39 +1232,6 @@
     <xf numFmtId="49" fontId="2" fillId="6" borderId="4" xfId="6" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="6" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="3" xfId="5" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="4"/>
@@ -1276,19 +1270,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="22" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="21" xfId="4" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="21" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="7" borderId="20" xfId="23" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="8" borderId="6" xfId="24" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1297,10 +1312,13 @@
     <xf numFmtId="49" fontId="1" fillId="8" borderId="10" xfId="24" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="22" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="8" borderId="9" xfId="24" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1309,13 +1327,25 @@
     <xf numFmtId="49" fontId="1" fillId="8" borderId="23" xfId="24" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="7" borderId="20" xfId="23" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="3" xfId="5" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="131">
+  <cellStyles count="133">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
     <cellStyle name="20% - Accent2" xfId="24" builtinId="34"/>
     <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
@@ -1381,6 +1411,7 @@
     <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
@@ -1444,6 +1475,7 @@
     <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="5" builtinId="20"/>
     <cellStyle name="Neutral" xfId="23" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1778,10 +1810,10 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:BG26"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+    <sheetView showRuler="0" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="E10" sqref="E10"/>
+      <selection pane="topRight" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0"/>
@@ -1804,84 +1836,84 @@
   <sheetData>
     <row r="1" spans="1:59" s="7" customFormat="1" thickBot="1">
       <c r="A1"/>
-      <c r="B1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="25" t="s">
+      <c r="F1" s="80"/>
+      <c r="G1" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="23" t="s">
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="19" t="s">
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="20"/>
-      <c r="AG1" s="65"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="75"/>
       <c r="AH1" s="12"/>
       <c r="AI1" s="12"/>
-      <c r="AJ1" s="20" t="s">
+      <c r="AJ1" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="AK1" s="20"/>
-      <c r="AL1" s="20"/>
-      <c r="AM1" s="20"/>
-      <c r="AN1" s="20"/>
-      <c r="AO1" s="20"/>
-      <c r="AP1" s="20"/>
-      <c r="AQ1" s="20"/>
-      <c r="AR1" s="20"/>
-      <c r="AS1" s="20"/>
-      <c r="AT1" s="20"/>
-      <c r="AU1" s="20"/>
-      <c r="AV1" s="21"/>
-      <c r="AW1" s="19" t="s">
+      <c r="AK1" s="64"/>
+      <c r="AL1" s="64"/>
+      <c r="AM1" s="64"/>
+      <c r="AN1" s="64"/>
+      <c r="AO1" s="64"/>
+      <c r="AP1" s="64"/>
+      <c r="AQ1" s="64"/>
+      <c r="AR1" s="64"/>
+      <c r="AS1" s="64"/>
+      <c r="AT1" s="64"/>
+      <c r="AU1" s="64"/>
+      <c r="AV1" s="65"/>
+      <c r="AW1" s="63" t="s">
         <v>77</v>
       </c>
-      <c r="AX1" s="20"/>
-      <c r="AY1" s="21"/>
-      <c r="AZ1" s="19" t="s">
+      <c r="AX1" s="64"/>
+      <c r="AY1" s="65"/>
+      <c r="AZ1" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="BA1" s="20"/>
-      <c r="BB1" s="21"/>
-      <c r="BC1" s="19" t="s">
+      <c r="BA1" s="64"/>
+      <c r="BB1" s="65"/>
+      <c r="BC1" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="BD1" s="20"/>
-      <c r="BE1" s="21"/>
+      <c r="BD1" s="64"/>
+      <c r="BE1" s="65"/>
       <c r="BF1" s="7" t="s">
         <v>8</v>
       </c>
@@ -1891,104 +1923,104 @@
     </row>
     <row r="2" spans="1:59" s="8" customFormat="1" ht="22" thickTop="1" thickBot="1">
       <c r="A2"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="26" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26" t="s">
+      <c r="F2" s="83"/>
+      <c r="G2" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26" t="s">
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="76" t="s">
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="N2" s="73"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="78" t="s">
+      <c r="N2" s="70"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="77" t="s">
         <v>95</v>
       </c>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="76" t="s">
+      <c r="Q2" s="72"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="T2" s="77"/>
-      <c r="U2" s="78" t="s">
+      <c r="T2" s="71"/>
+      <c r="U2" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="V2" s="74"/>
-      <c r="W2" s="75"/>
-      <c r="X2" s="76" t="s">
+      <c r="V2" s="72"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="69" t="s">
         <v>102</v>
       </c>
-      <c r="Y2" s="77"/>
-      <c r="Z2" s="78" t="s">
+      <c r="Y2" s="71"/>
+      <c r="Z2" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="AA2" s="74"/>
-      <c r="AB2" s="75"/>
-      <c r="AC2" s="80" t="s">
+      <c r="AA2" s="72"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="AD2" s="77"/>
-      <c r="AE2" s="78" t="s">
+      <c r="AD2" s="71"/>
+      <c r="AE2" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="AF2" s="74"/>
-      <c r="AG2" s="79"/>
-      <c r="AH2" s="72" t="s">
+      <c r="AF2" s="72"/>
+      <c r="AG2" s="78"/>
+      <c r="AH2" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="AI2" s="73"/>
-      <c r="AJ2" s="74" t="s">
+      <c r="AI2" s="70"/>
+      <c r="AJ2" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="AK2" s="74"/>
-      <c r="AL2" s="75"/>
-      <c r="AM2" s="55"/>
-      <c r="AN2" s="55"/>
-      <c r="AO2" s="16" t="s">
+      <c r="AK2" s="72"/>
+      <c r="AL2" s="73"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="44"/>
+      <c r="AO2" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="AP2" s="17"/>
-      <c r="AQ2" s="18"/>
+      <c r="AP2" s="67"/>
+      <c r="AQ2" s="68"/>
       <c r="AR2" s="11"/>
       <c r="AS2" s="11"/>
-      <c r="AT2" s="16" t="s">
+      <c r="AT2" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="AU2" s="17"/>
-      <c r="AV2" s="18"/>
-      <c r="AW2" s="16" t="s">
+      <c r="AU2" s="67"/>
+      <c r="AV2" s="68"/>
+      <c r="AW2" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="AX2" s="17"/>
-      <c r="AY2" s="18"/>
-      <c r="AZ2" s="16" t="s">
+      <c r="AX2" s="67"/>
+      <c r="AY2" s="68"/>
+      <c r="AZ2" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="BA2" s="17"/>
-      <c r="BB2" s="18"/>
-      <c r="BC2" s="16" t="s">
+      <c r="BA2" s="67"/>
+      <c r="BB2" s="68"/>
+      <c r="BC2" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="BD2" s="17"/>
-      <c r="BE2" s="18"/>
+      <c r="BD2" s="67"/>
+      <c r="BE2" s="68"/>
     </row>
     <row r="3" spans="1:59" s="8" customFormat="1" ht="22" thickTop="1" thickBot="1">
       <c r="A3"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="24"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="81"/>
       <c r="E3" s="8">
         <v>10</v>
       </c>
@@ -2073,16 +2105,16 @@
       <c r="AF3" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="AG3" s="66" t="s">
+      <c r="AG3" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="AH3" s="56" t="s">
+      <c r="AH3" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="AI3" s="56" t="s">
+      <c r="AI3" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="AJ3" s="56" t="s">
+      <c r="AJ3" s="45" t="s">
         <v>87</v>
       </c>
       <c r="AK3" s="8" t="s">
@@ -2151,7 +2183,7 @@
     </row>
     <row r="4" spans="1:59" ht="30" customHeight="1" thickTop="1">
       <c r="A4"/>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="17" t="s">
         <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -2187,38 +2219,38 @@
       <c r="M4"/>
       <c r="N4"/>
       <c r="O4"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="57"/>
-      <c r="T4" s="57"/>
-      <c r="U4" s="57"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="57"/>
-      <c r="X4" s="57"/>
-      <c r="Y4" s="57"/>
-      <c r="Z4" s="57"/>
-      <c r="AA4" s="57"/>
-      <c r="AB4" s="57"/>
-      <c r="AC4" s="57"/>
-      <c r="AD4" s="57"/>
-      <c r="AE4" s="57"/>
-      <c r="AF4" s="57"/>
-      <c r="AG4" s="67"/>
-      <c r="AH4" s="57"/>
-      <c r="AI4" s="57"/>
-      <c r="AL4" s="61"/>
-      <c r="AM4" s="57"/>
-      <c r="AN4" s="57"/>
-      <c r="AQ4" s="61"/>
-      <c r="AR4" s="57"/>
-      <c r="AS4" s="57"/>
-      <c r="AV4" s="61"/>
-      <c r="AW4" s="57"/>
-      <c r="AX4" s="57"/>
-      <c r="AY4" s="63"/>
-      <c r="AZ4" s="64"/>
-      <c r="BA4" s="64"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="46"/>
+      <c r="AG4" s="55"/>
+      <c r="AH4" s="46"/>
+      <c r="AI4" s="46"/>
+      <c r="AL4" s="50"/>
+      <c r="AM4" s="46"/>
+      <c r="AN4" s="46"/>
+      <c r="AQ4" s="50"/>
+      <c r="AR4" s="46"/>
+      <c r="AS4" s="46"/>
+      <c r="AV4" s="50"/>
+      <c r="AW4" s="46"/>
+      <c r="AX4" s="46"/>
+      <c r="AY4" s="52"/>
+      <c r="AZ4" s="53"/>
+      <c r="BA4" s="53"/>
     </row>
     <row r="5" spans="1:59">
       <c r="B5" s="13" t="s">
@@ -2257,38 +2289,38 @@
       <c r="M5"/>
       <c r="N5"/>
       <c r="O5"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="57"/>
-      <c r="T5" s="57"/>
-      <c r="U5" s="57"/>
-      <c r="V5" s="57"/>
-      <c r="W5" s="57"/>
-      <c r="X5" s="57"/>
-      <c r="Y5" s="57"/>
-      <c r="Z5" s="57"/>
-      <c r="AA5" s="57"/>
-      <c r="AB5" s="57"/>
-      <c r="AC5" s="57"/>
-      <c r="AD5" s="57"/>
-      <c r="AE5" s="57"/>
-      <c r="AF5" s="57"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="57"/>
-      <c r="AI5" s="57"/>
-      <c r="AL5" s="58"/>
-      <c r="AM5" s="57"/>
-      <c r="AN5" s="57"/>
-      <c r="AQ5" s="58"/>
-      <c r="AR5" s="57"/>
-      <c r="AS5" s="57"/>
-      <c r="AV5" s="58"/>
-      <c r="AW5" s="57"/>
-      <c r="AX5" s="57"/>
-      <c r="AY5" s="62"/>
-      <c r="AZ5" s="64"/>
-      <c r="BA5" s="64"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="46"/>
+      <c r="X5" s="46"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="46"/>
+      <c r="AA5" s="46"/>
+      <c r="AB5" s="46"/>
+      <c r="AC5" s="46"/>
+      <c r="AD5" s="46"/>
+      <c r="AE5" s="46"/>
+      <c r="AF5" s="46"/>
+      <c r="AG5" s="55"/>
+      <c r="AH5" s="46"/>
+      <c r="AI5" s="46"/>
+      <c r="AL5" s="47"/>
+      <c r="AM5" s="46"/>
+      <c r="AN5" s="46"/>
+      <c r="AQ5" s="47"/>
+      <c r="AR5" s="46"/>
+      <c r="AS5" s="46"/>
+      <c r="AV5" s="47"/>
+      <c r="AW5" s="46"/>
+      <c r="AX5" s="46"/>
+      <c r="AY5" s="51"/>
+      <c r="AZ5" s="53"/>
+      <c r="BA5" s="53"/>
     </row>
     <row r="6" spans="1:59">
       <c r="B6" s="13" t="s">
@@ -2327,38 +2359,38 @@
       <c r="M6"/>
       <c r="N6"/>
       <c r="O6"/>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="57"/>
-      <c r="R6" s="57"/>
-      <c r="S6" s="57"/>
-      <c r="T6" s="57"/>
-      <c r="U6" s="57"/>
-      <c r="V6" s="57"/>
-      <c r="W6" s="57"/>
-      <c r="X6" s="57"/>
-      <c r="Y6" s="57"/>
-      <c r="Z6" s="57"/>
-      <c r="AA6" s="57"/>
-      <c r="AB6" s="57"/>
-      <c r="AC6" s="57"/>
-      <c r="AD6" s="57"/>
-      <c r="AE6" s="57"/>
-      <c r="AF6" s="57"/>
-      <c r="AG6" s="67"/>
-      <c r="AH6" s="57"/>
-      <c r="AI6" s="57"/>
-      <c r="AL6" s="58"/>
-      <c r="AM6" s="57"/>
-      <c r="AN6" s="57"/>
-      <c r="AQ6" s="58"/>
-      <c r="AR6" s="57"/>
-      <c r="AS6" s="57"/>
-      <c r="AV6" s="58"/>
-      <c r="AW6" s="57"/>
-      <c r="AX6" s="57"/>
-      <c r="AY6" s="62"/>
-      <c r="AZ6" s="64"/>
-      <c r="BA6" s="64"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="46"/>
+      <c r="U6" s="46"/>
+      <c r="V6" s="46"/>
+      <c r="W6" s="46"/>
+      <c r="X6" s="46"/>
+      <c r="Y6" s="46"/>
+      <c r="Z6" s="46"/>
+      <c r="AA6" s="46"/>
+      <c r="AB6" s="46"/>
+      <c r="AC6" s="46"/>
+      <c r="AD6" s="46"/>
+      <c r="AE6" s="46"/>
+      <c r="AF6" s="46"/>
+      <c r="AG6" s="55"/>
+      <c r="AH6" s="46"/>
+      <c r="AI6" s="46"/>
+      <c r="AL6" s="47"/>
+      <c r="AM6" s="46"/>
+      <c r="AN6" s="46"/>
+      <c r="AQ6" s="47"/>
+      <c r="AR6" s="46"/>
+      <c r="AS6" s="46"/>
+      <c r="AV6" s="47"/>
+      <c r="AW6" s="46"/>
+      <c r="AX6" s="46"/>
+      <c r="AY6" s="51"/>
+      <c r="AZ6" s="53"/>
+      <c r="BA6" s="53"/>
     </row>
     <row r="7" spans="1:59">
       <c r="B7" s="13" t="s">
@@ -2397,38 +2429,38 @@
       <c r="M7"/>
       <c r="N7"/>
       <c r="O7"/>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="57"/>
-      <c r="R7" s="57"/>
-      <c r="S7" s="57"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="57"/>
-      <c r="V7" s="57"/>
-      <c r="W7" s="57"/>
-      <c r="X7" s="57"/>
-      <c r="Y7" s="57"/>
-      <c r="Z7" s="57"/>
-      <c r="AA7" s="57"/>
-      <c r="AB7" s="57"/>
-      <c r="AC7" s="57"/>
-      <c r="AD7" s="57"/>
-      <c r="AE7" s="57"/>
-      <c r="AF7" s="57"/>
-      <c r="AG7" s="67"/>
-      <c r="AH7" s="57"/>
-      <c r="AI7" s="57"/>
-      <c r="AL7" s="58"/>
-      <c r="AM7" s="57"/>
-      <c r="AN7" s="57"/>
-      <c r="AQ7" s="58"/>
-      <c r="AR7" s="57"/>
-      <c r="AS7" s="57"/>
-      <c r="AV7" s="58"/>
-      <c r="AW7" s="57"/>
-      <c r="AX7" s="57"/>
-      <c r="AY7" s="62"/>
-      <c r="AZ7" s="64"/>
-      <c r="BA7" s="64"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="46"/>
+      <c r="T7" s="46"/>
+      <c r="U7" s="46"/>
+      <c r="V7" s="46"/>
+      <c r="W7" s="46"/>
+      <c r="X7" s="46"/>
+      <c r="Y7" s="46"/>
+      <c r="Z7" s="46"/>
+      <c r="AA7" s="46"/>
+      <c r="AB7" s="46"/>
+      <c r="AC7" s="46"/>
+      <c r="AD7" s="46"/>
+      <c r="AE7" s="46"/>
+      <c r="AF7" s="46"/>
+      <c r="AG7" s="55"/>
+      <c r="AH7" s="46"/>
+      <c r="AI7" s="46"/>
+      <c r="AL7" s="47"/>
+      <c r="AM7" s="46"/>
+      <c r="AN7" s="46"/>
+      <c r="AQ7" s="47"/>
+      <c r="AR7" s="46"/>
+      <c r="AS7" s="46"/>
+      <c r="AV7" s="47"/>
+      <c r="AW7" s="46"/>
+      <c r="AX7" s="46"/>
+      <c r="AY7" s="51"/>
+      <c r="AZ7" s="53"/>
+      <c r="BA7" s="53"/>
     </row>
     <row r="8" spans="1:59">
       <c r="B8" s="14" t="s">
@@ -2467,38 +2499,38 @@
       <c r="M8"/>
       <c r="N8"/>
       <c r="O8"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="57"/>
-      <c r="S8" s="57"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="57"/>
-      <c r="V8" s="57"/>
-      <c r="W8" s="57"/>
-      <c r="X8" s="57"/>
-      <c r="Y8" s="57"/>
-      <c r="Z8" s="57"/>
-      <c r="AA8" s="57"/>
-      <c r="AB8" s="57"/>
-      <c r="AC8" s="57"/>
-      <c r="AD8" s="57"/>
-      <c r="AE8" s="57"/>
-      <c r="AF8" s="57"/>
-      <c r="AG8" s="67"/>
-      <c r="AH8" s="57"/>
-      <c r="AI8" s="57"/>
-      <c r="AL8" s="58"/>
-      <c r="AM8" s="57"/>
-      <c r="AN8" s="57"/>
-      <c r="AQ8" s="58"/>
-      <c r="AR8" s="57"/>
-      <c r="AS8" s="57"/>
-      <c r="AV8" s="58"/>
-      <c r="AW8" s="57"/>
-      <c r="AX8" s="57"/>
-      <c r="AY8" s="62"/>
-      <c r="AZ8" s="64"/>
-      <c r="BA8" s="64"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="46"/>
+      <c r="U8" s="46"/>
+      <c r="V8" s="46"/>
+      <c r="W8" s="46"/>
+      <c r="X8" s="46"/>
+      <c r="Y8" s="46"/>
+      <c r="Z8" s="46"/>
+      <c r="AA8" s="46"/>
+      <c r="AB8" s="46"/>
+      <c r="AC8" s="46"/>
+      <c r="AD8" s="46"/>
+      <c r="AE8" s="46"/>
+      <c r="AF8" s="46"/>
+      <c r="AG8" s="55"/>
+      <c r="AH8" s="46"/>
+      <c r="AI8" s="46"/>
+      <c r="AL8" s="47"/>
+      <c r="AM8" s="46"/>
+      <c r="AN8" s="46"/>
+      <c r="AQ8" s="47"/>
+      <c r="AR8" s="46"/>
+      <c r="AS8" s="46"/>
+      <c r="AV8" s="47"/>
+      <c r="AW8" s="46"/>
+      <c r="AX8" s="46"/>
+      <c r="AY8" s="51"/>
+      <c r="AZ8" s="53"/>
+      <c r="BA8" s="53"/>
     </row>
     <row r="9" spans="1:59">
       <c r="B9" s="13" t="s">
@@ -2537,38 +2569,38 @@
       <c r="M9"/>
       <c r="N9"/>
       <c r="O9"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="57"/>
-      <c r="T9" s="57"/>
-      <c r="U9" s="57"/>
-      <c r="V9" s="57"/>
-      <c r="W9" s="57"/>
-      <c r="X9" s="57"/>
-      <c r="Y9" s="57"/>
-      <c r="Z9" s="57"/>
-      <c r="AA9" s="57"/>
-      <c r="AB9" s="57"/>
-      <c r="AC9" s="57"/>
-      <c r="AD9" s="57"/>
-      <c r="AE9" s="57"/>
-      <c r="AF9" s="57"/>
-      <c r="AG9" s="67"/>
-      <c r="AH9" s="57"/>
-      <c r="AI9" s="57"/>
-      <c r="AL9" s="58"/>
-      <c r="AM9" s="57"/>
-      <c r="AN9" s="57"/>
-      <c r="AQ9" s="58"/>
-      <c r="AR9" s="57"/>
-      <c r="AS9" s="57"/>
-      <c r="AV9" s="58"/>
-      <c r="AW9" s="57"/>
-      <c r="AX9" s="57"/>
-      <c r="AY9" s="62"/>
-      <c r="AZ9" s="64"/>
-      <c r="BA9" s="64"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="46"/>
+      <c r="V9" s="46"/>
+      <c r="W9" s="46"/>
+      <c r="X9" s="46"/>
+      <c r="Y9" s="46"/>
+      <c r="Z9" s="46"/>
+      <c r="AA9" s="46"/>
+      <c r="AB9" s="46"/>
+      <c r="AC9" s="46"/>
+      <c r="AD9" s="46"/>
+      <c r="AE9" s="46"/>
+      <c r="AF9" s="46"/>
+      <c r="AG9" s="55"/>
+      <c r="AH9" s="46"/>
+      <c r="AI9" s="46"/>
+      <c r="AL9" s="47"/>
+      <c r="AM9" s="46"/>
+      <c r="AN9" s="46"/>
+      <c r="AQ9" s="47"/>
+      <c r="AR9" s="46"/>
+      <c r="AS9" s="46"/>
+      <c r="AV9" s="47"/>
+      <c r="AW9" s="46"/>
+      <c r="AX9" s="46"/>
+      <c r="AY9" s="51"/>
+      <c r="AZ9" s="53"/>
+      <c r="BA9" s="53"/>
     </row>
     <row r="10" spans="1:59">
       <c r="B10" s="13" t="s">
@@ -2607,44 +2639,44 @@
       <c r="M10"/>
       <c r="N10"/>
       <c r="O10"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="57"/>
-      <c r="V10" s="57"/>
-      <c r="W10" s="57"/>
-      <c r="X10" s="57"/>
-      <c r="Y10" s="57"/>
-      <c r="Z10" s="57"/>
-      <c r="AA10" s="57"/>
-      <c r="AB10" s="57"/>
-      <c r="AC10" s="57"/>
-      <c r="AD10" s="57"/>
-      <c r="AE10" s="57"/>
-      <c r="AF10" s="57"/>
-      <c r="AG10" s="67"/>
-      <c r="AH10" s="57"/>
-      <c r="AI10" s="57"/>
-      <c r="AL10" s="58"/>
-      <c r="AM10" s="57"/>
-      <c r="AN10" s="57"/>
-      <c r="AQ10" s="58"/>
-      <c r="AR10" s="57"/>
-      <c r="AS10" s="57"/>
-      <c r="AV10" s="58"/>
-      <c r="AW10" s="57"/>
-      <c r="AX10" s="57"/>
-      <c r="AY10" s="62"/>
-      <c r="AZ10" s="64"/>
-      <c r="BA10" s="64"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="46"/>
+      <c r="V10" s="46"/>
+      <c r="W10" s="46"/>
+      <c r="X10" s="46"/>
+      <c r="Y10" s="46"/>
+      <c r="Z10" s="46"/>
+      <c r="AA10" s="46"/>
+      <c r="AB10" s="46"/>
+      <c r="AC10" s="46"/>
+      <c r="AD10" s="46"/>
+      <c r="AE10" s="46"/>
+      <c r="AF10" s="46"/>
+      <c r="AG10" s="55"/>
+      <c r="AH10" s="46"/>
+      <c r="AI10" s="46"/>
+      <c r="AL10" s="47"/>
+      <c r="AM10" s="46"/>
+      <c r="AN10" s="46"/>
+      <c r="AQ10" s="47"/>
+      <c r="AR10" s="46"/>
+      <c r="AS10" s="46"/>
+      <c r="AV10" s="47"/>
+      <c r="AW10" s="46"/>
+      <c r="AX10" s="46"/>
+      <c r="AY10" s="51"/>
+      <c r="AZ10" s="53"/>
+      <c r="BA10" s="53"/>
     </row>
     <row r="11" spans="1:59">
       <c r="B11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="22" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="15" t="s">
@@ -2656,13 +2688,13 @@
       <c r="F11" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="50">
-        <v>0</v>
-      </c>
-      <c r="H11" s="50">
+      <c r="G11" s="39">
+        <v>0</v>
+      </c>
+      <c r="H11" s="39">
         <v>1</v>
       </c>
-      <c r="I11" s="51">
+      <c r="I11" s="40">
         <v>1</v>
       </c>
       <c r="J11" s="6" t="s">
@@ -2677,38 +2709,38 @@
       <c r="M11"/>
       <c r="N11"/>
       <c r="O11"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="57"/>
-      <c r="U11" s="57"/>
-      <c r="V11" s="57"/>
-      <c r="W11" s="57"/>
-      <c r="X11" s="57"/>
-      <c r="Y11" s="57"/>
-      <c r="Z11" s="57"/>
-      <c r="AA11" s="57"/>
-      <c r="AB11" s="57"/>
-      <c r="AC11" s="57"/>
-      <c r="AD11" s="57"/>
-      <c r="AE11" s="57"/>
-      <c r="AF11" s="57"/>
-      <c r="AG11" s="67"/>
-      <c r="AH11" s="57"/>
-      <c r="AI11" s="57"/>
-      <c r="AL11" s="58"/>
-      <c r="AM11" s="57"/>
-      <c r="AN11" s="57"/>
-      <c r="AQ11" s="58"/>
-      <c r="AR11" s="57"/>
-      <c r="AS11" s="57"/>
-      <c r="AV11" s="58"/>
-      <c r="AW11" s="57"/>
-      <c r="AX11" s="57"/>
-      <c r="AY11" s="62"/>
-      <c r="AZ11" s="64"/>
-      <c r="BA11" s="64"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="46"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="46"/>
+      <c r="V11" s="46"/>
+      <c r="W11" s="46"/>
+      <c r="X11" s="46"/>
+      <c r="Y11" s="46"/>
+      <c r="Z11" s="46"/>
+      <c r="AA11" s="46"/>
+      <c r="AB11" s="46"/>
+      <c r="AC11" s="46"/>
+      <c r="AD11" s="46"/>
+      <c r="AE11" s="46"/>
+      <c r="AF11" s="46"/>
+      <c r="AG11" s="55"/>
+      <c r="AH11" s="46"/>
+      <c r="AI11" s="46"/>
+      <c r="AL11" s="47"/>
+      <c r="AM11" s="46"/>
+      <c r="AN11" s="46"/>
+      <c r="AQ11" s="47"/>
+      <c r="AR11" s="46"/>
+      <c r="AS11" s="46"/>
+      <c r="AV11" s="47"/>
+      <c r="AW11" s="46"/>
+      <c r="AX11" s="46"/>
+      <c r="AY11" s="51"/>
+      <c r="AZ11" s="53"/>
+      <c r="BA11" s="53"/>
     </row>
     <row r="12" spans="1:59">
       <c r="B12" s="13" t="s">
@@ -2726,13 +2758,13 @@
       <c r="F12" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="29">
-        <v>0</v>
-      </c>
-      <c r="H12" s="29">
-        <v>0</v>
-      </c>
-      <c r="I12" s="30">
+      <c r="G12" s="18">
+        <v>0</v>
+      </c>
+      <c r="H12" s="18">
+        <v>0</v>
+      </c>
+      <c r="I12" s="19">
         <v>0</v>
       </c>
       <c r="J12" s="4" t="s">
@@ -2747,44 +2779,44 @@
       <c r="M12"/>
       <c r="N12"/>
       <c r="O12"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="57"/>
-      <c r="S12" s="57"/>
-      <c r="T12" s="57"/>
-      <c r="U12" s="57"/>
-      <c r="V12" s="57"/>
-      <c r="W12" s="57"/>
-      <c r="X12" s="57"/>
-      <c r="Y12" s="57"/>
-      <c r="Z12" s="57"/>
-      <c r="AA12" s="57"/>
-      <c r="AB12" s="57"/>
-      <c r="AC12" s="57"/>
-      <c r="AD12" s="57"/>
-      <c r="AE12" s="57"/>
-      <c r="AF12" s="57"/>
-      <c r="AG12" s="67"/>
-      <c r="AH12" s="57"/>
-      <c r="AI12" s="57"/>
-      <c r="AL12" s="58"/>
-      <c r="AM12" s="57"/>
-      <c r="AN12" s="57"/>
-      <c r="AQ12" s="58"/>
-      <c r="AR12" s="57"/>
-      <c r="AS12" s="57"/>
-      <c r="AV12" s="58"/>
-      <c r="AW12" s="57"/>
-      <c r="AX12" s="57"/>
-      <c r="AY12" s="62"/>
-      <c r="AZ12" s="64"/>
-      <c r="BA12" s="64"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="46"/>
+      <c r="W12" s="46"/>
+      <c r="X12" s="46"/>
+      <c r="Y12" s="46"/>
+      <c r="Z12" s="46"/>
+      <c r="AA12" s="46"/>
+      <c r="AB12" s="46"/>
+      <c r="AC12" s="46"/>
+      <c r="AD12" s="46"/>
+      <c r="AE12" s="46"/>
+      <c r="AF12" s="46"/>
+      <c r="AG12" s="55"/>
+      <c r="AH12" s="46"/>
+      <c r="AI12" s="46"/>
+      <c r="AL12" s="47"/>
+      <c r="AM12" s="46"/>
+      <c r="AN12" s="46"/>
+      <c r="AQ12" s="47"/>
+      <c r="AR12" s="46"/>
+      <c r="AS12" s="46"/>
+      <c r="AV12" s="47"/>
+      <c r="AW12" s="46"/>
+      <c r="AX12" s="46"/>
+      <c r="AY12" s="51"/>
+      <c r="AZ12" s="53"/>
+      <c r="BA12" s="53"/>
     </row>
     <row r="13" spans="1:59">
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="22" t="s">
         <v>37</v>
       </c>
       <c r="D13" s="15" t="s">
@@ -2796,13 +2828,13 @@
       <c r="F13" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="29">
-        <v>0</v>
-      </c>
-      <c r="H13" s="29">
-        <v>0</v>
-      </c>
-      <c r="I13" s="30">
+      <c r="G13" s="18">
+        <v>0</v>
+      </c>
+      <c r="H13" s="18">
+        <v>0</v>
+      </c>
+      <c r="I13" s="19">
         <v>0</v>
       </c>
       <c r="J13" s="6" t="s">
@@ -2817,38 +2849,38 @@
       <c r="M13"/>
       <c r="N13"/>
       <c r="O13"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="57"/>
-      <c r="S13" s="57"/>
-      <c r="T13" s="57"/>
-      <c r="U13" s="57"/>
-      <c r="V13" s="57"/>
-      <c r="W13" s="57"/>
-      <c r="X13" s="57"/>
-      <c r="Y13" s="57"/>
-      <c r="Z13" s="57"/>
-      <c r="AA13" s="57"/>
-      <c r="AB13" s="57"/>
-      <c r="AC13" s="57"/>
-      <c r="AD13" s="57"/>
-      <c r="AE13" s="57"/>
-      <c r="AF13" s="57"/>
-      <c r="AG13" s="67"/>
-      <c r="AH13" s="57"/>
-      <c r="AI13" s="57"/>
-      <c r="AL13" s="58"/>
-      <c r="AM13" s="57"/>
-      <c r="AN13" s="57"/>
-      <c r="AQ13" s="58"/>
-      <c r="AR13" s="57"/>
-      <c r="AS13" s="57"/>
-      <c r="AV13" s="58"/>
-      <c r="AW13" s="57"/>
-      <c r="AX13" s="57"/>
-      <c r="AY13" s="62"/>
-      <c r="AZ13" s="64"/>
-      <c r="BA13" s="64"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="46"/>
+      <c r="W13" s="46"/>
+      <c r="X13" s="46"/>
+      <c r="Y13" s="46"/>
+      <c r="Z13" s="46"/>
+      <c r="AA13" s="46"/>
+      <c r="AB13" s="46"/>
+      <c r="AC13" s="46"/>
+      <c r="AD13" s="46"/>
+      <c r="AE13" s="46"/>
+      <c r="AF13" s="46"/>
+      <c r="AG13" s="55"/>
+      <c r="AH13" s="46"/>
+      <c r="AI13" s="46"/>
+      <c r="AL13" s="47"/>
+      <c r="AM13" s="46"/>
+      <c r="AN13" s="46"/>
+      <c r="AQ13" s="47"/>
+      <c r="AR13" s="46"/>
+      <c r="AS13" s="46"/>
+      <c r="AV13" s="47"/>
+      <c r="AW13" s="46"/>
+      <c r="AX13" s="46"/>
+      <c r="AY13" s="51"/>
+      <c r="AZ13" s="53"/>
+      <c r="BA13" s="53"/>
     </row>
     <row r="14" spans="1:59">
       <c r="B14" s="13" t="s">
@@ -2866,13 +2898,13 @@
       <c r="F14" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="29">
-        <v>0</v>
-      </c>
-      <c r="H14" s="29">
-        <v>0</v>
-      </c>
-      <c r="I14" s="30">
+      <c r="G14" s="18">
+        <v>0</v>
+      </c>
+      <c r="H14" s="18">
+        <v>0</v>
+      </c>
+      <c r="I14" s="19">
         <v>0</v>
       </c>
       <c r="J14" s="4" t="s">
@@ -2887,38 +2919,38 @@
       <c r="M14"/>
       <c r="N14"/>
       <c r="O14"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="57"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="57"/>
-      <c r="U14" s="57"/>
-      <c r="V14" s="57"/>
-      <c r="W14" s="57"/>
-      <c r="X14" s="57"/>
-      <c r="Y14" s="57"/>
-      <c r="Z14" s="57"/>
-      <c r="AA14" s="57"/>
-      <c r="AB14" s="57"/>
-      <c r="AC14" s="57"/>
-      <c r="AD14" s="57"/>
-      <c r="AE14" s="57"/>
-      <c r="AF14" s="57"/>
-      <c r="AG14" s="67"/>
-      <c r="AH14" s="57"/>
-      <c r="AI14" s="57"/>
-      <c r="AL14" s="58"/>
-      <c r="AM14" s="57"/>
-      <c r="AN14" s="57"/>
-      <c r="AQ14" s="58"/>
-      <c r="AR14" s="57"/>
-      <c r="AS14" s="57"/>
-      <c r="AV14" s="58"/>
-      <c r="AW14" s="57"/>
-      <c r="AX14" s="57"/>
-      <c r="AY14" s="62"/>
-      <c r="AZ14" s="64"/>
-      <c r="BA14" s="64"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="46"/>
+      <c r="T14" s="46"/>
+      <c r="U14" s="46"/>
+      <c r="V14" s="46"/>
+      <c r="W14" s="46"/>
+      <c r="X14" s="46"/>
+      <c r="Y14" s="46"/>
+      <c r="Z14" s="46"/>
+      <c r="AA14" s="46"/>
+      <c r="AB14" s="46"/>
+      <c r="AC14" s="46"/>
+      <c r="AD14" s="46"/>
+      <c r="AE14" s="46"/>
+      <c r="AF14" s="46"/>
+      <c r="AG14" s="55"/>
+      <c r="AH14" s="46"/>
+      <c r="AI14" s="46"/>
+      <c r="AL14" s="47"/>
+      <c r="AM14" s="46"/>
+      <c r="AN14" s="46"/>
+      <c r="AQ14" s="47"/>
+      <c r="AR14" s="46"/>
+      <c r="AS14" s="46"/>
+      <c r="AV14" s="47"/>
+      <c r="AW14" s="46"/>
+      <c r="AX14" s="46"/>
+      <c r="AY14" s="51"/>
+      <c r="AZ14" s="53"/>
+      <c r="BA14" s="53"/>
     </row>
     <row r="15" spans="1:59">
       <c r="B15" s="13" t="s">
@@ -2936,13 +2968,13 @@
       <c r="F15" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="29">
-        <v>0</v>
-      </c>
-      <c r="H15" s="29">
-        <v>0</v>
-      </c>
-      <c r="I15" s="30">
+      <c r="G15" s="18">
+        <v>0</v>
+      </c>
+      <c r="H15" s="18">
+        <v>0</v>
+      </c>
+      <c r="I15" s="19">
         <v>0</v>
       </c>
       <c r="J15" s="4" t="s">
@@ -2957,135 +2989,135 @@
       <c r="M15"/>
       <c r="N15"/>
       <c r="O15"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="57"/>
-      <c r="S15" s="57"/>
-      <c r="T15" s="57"/>
-      <c r="U15" s="57"/>
-      <c r="V15" s="57"/>
-      <c r="W15" s="57"/>
-      <c r="X15" s="57"/>
-      <c r="Y15" s="57"/>
-      <c r="Z15" s="57"/>
-      <c r="AA15" s="57"/>
-      <c r="AB15" s="57"/>
-      <c r="AC15" s="57"/>
-      <c r="AD15" s="57"/>
-      <c r="AE15" s="57"/>
-      <c r="AF15" s="57"/>
-      <c r="AG15" s="67"/>
-      <c r="AH15" s="57"/>
-      <c r="AI15" s="57"/>
-      <c r="AL15" s="58"/>
-      <c r="AM15" s="57"/>
-      <c r="AN15" s="57"/>
-      <c r="AQ15" s="58"/>
-      <c r="AR15" s="57"/>
-      <c r="AS15" s="57"/>
-      <c r="AV15" s="58"/>
-      <c r="AW15" s="57"/>
-      <c r="AX15" s="57"/>
-      <c r="AY15" s="62"/>
-      <c r="AZ15" s="64"/>
-      <c r="BA15" s="64"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="46"/>
+      <c r="T15" s="46"/>
+      <c r="U15" s="46"/>
+      <c r="V15" s="46"/>
+      <c r="W15" s="46"/>
+      <c r="X15" s="46"/>
+      <c r="Y15" s="46"/>
+      <c r="Z15" s="46"/>
+      <c r="AA15" s="46"/>
+      <c r="AB15" s="46"/>
+      <c r="AC15" s="46"/>
+      <c r="AD15" s="46"/>
+      <c r="AE15" s="46"/>
+      <c r="AF15" s="46"/>
+      <c r="AG15" s="55"/>
+      <c r="AH15" s="46"/>
+      <c r="AI15" s="46"/>
+      <c r="AL15" s="47"/>
+      <c r="AM15" s="46"/>
+      <c r="AN15" s="46"/>
+      <c r="AQ15" s="47"/>
+      <c r="AR15" s="46"/>
+      <c r="AS15" s="46"/>
+      <c r="AV15" s="47"/>
+      <c r="AW15" s="46"/>
+      <c r="AX15" s="46"/>
+      <c r="AY15" s="51"/>
+      <c r="AZ15" s="53"/>
+      <c r="BA15" s="53"/>
     </row>
     <row r="16" spans="1:59">
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="41" t="s">
         <v>42</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" s="38">
-        <v>0</v>
-      </c>
-      <c r="H16" s="38">
-        <v>0</v>
-      </c>
-      <c r="I16" s="39">
-        <v>0</v>
-      </c>
-      <c r="J16" s="40" t="s">
+      <c r="E16" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="27">
+        <v>0</v>
+      </c>
+      <c r="H16" s="27">
+        <v>0</v>
+      </c>
+      <c r="I16" s="28">
+        <v>0</v>
+      </c>
+      <c r="J16" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="40" t="s">
+      <c r="K16" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="L16" s="41" t="s">
+      <c r="L16" s="30" t="s">
         <v>47</v>
       </c>
       <c r="M16"/>
       <c r="N16"/>
       <c r="O16"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="57"/>
-      <c r="S16" s="57"/>
-      <c r="T16" s="57"/>
-      <c r="U16" s="57"/>
-      <c r="V16" s="57"/>
-      <c r="W16" s="57"/>
-      <c r="X16" s="57"/>
-      <c r="Y16" s="57"/>
-      <c r="Z16" s="57"/>
-      <c r="AA16" s="57"/>
-      <c r="AB16" s="57"/>
-      <c r="AC16" s="57"/>
-      <c r="AD16" s="57"/>
-      <c r="AE16" s="57"/>
-      <c r="AF16" s="57"/>
-      <c r="AG16" s="67"/>
-      <c r="AH16" s="57"/>
-      <c r="AI16" s="57"/>
-      <c r="AL16" s="58"/>
-      <c r="AM16" s="57"/>
-      <c r="AN16" s="57"/>
-      <c r="AQ16" s="58"/>
-      <c r="AR16" s="57"/>
-      <c r="AS16" s="57"/>
-      <c r="AV16" s="58"/>
-      <c r="AW16" s="57"/>
-      <c r="AX16" s="57"/>
-      <c r="AY16" s="62"/>
-      <c r="AZ16" s="64"/>
-      <c r="BA16" s="64"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="46"/>
+      <c r="T16" s="46"/>
+      <c r="U16" s="46"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="46"/>
+      <c r="X16" s="46"/>
+      <c r="Y16" s="46"/>
+      <c r="Z16" s="46"/>
+      <c r="AA16" s="46"/>
+      <c r="AB16" s="46"/>
+      <c r="AC16" s="46"/>
+      <c r="AD16" s="46"/>
+      <c r="AE16" s="46"/>
+      <c r="AF16" s="46"/>
+      <c r="AG16" s="55"/>
+      <c r="AH16" s="46"/>
+      <c r="AI16" s="46"/>
+      <c r="AL16" s="47"/>
+      <c r="AM16" s="46"/>
+      <c r="AN16" s="46"/>
+      <c r="AQ16" s="47"/>
+      <c r="AR16" s="46"/>
+      <c r="AS16" s="46"/>
+      <c r="AV16" s="47"/>
+      <c r="AW16" s="46"/>
+      <c r="AX16" s="46"/>
+      <c r="AY16" s="51"/>
+      <c r="AZ16" s="53"/>
+      <c r="BA16" s="53"/>
     </row>
     <row r="17" spans="1:56">
       <c r="A17" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="38" t="s">
         <v>62</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" s="44" t="s">
+      <c r="E17" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="H17" s="45" t="s">
+      <c r="H17" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="I17" s="46" t="s">
+      <c r="I17" s="35" t="s">
         <v>50</v>
       </c>
       <c r="J17" s="6" t="s">
@@ -3094,7 +3126,7 @@
       <c r="K17" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="L17" s="46" t="s">
+      <c r="L17" s="35" t="s">
         <v>47</v>
       </c>
       <c r="M17" s="6" t="s">
@@ -3106,10 +3138,10 @@
       <c r="O17" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="P17" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q17" s="27" t="s">
+      <c r="P17" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q17" s="16" t="s">
         <v>47</v>
       </c>
       <c r="R17" s="5" t="s">
@@ -3121,10 +3153,10 @@
       <c r="T17" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="U17" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="V17" s="27" t="s">
+      <c r="U17" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="V17" s="16" t="s">
         <v>47</v>
       </c>
       <c r="W17" s="5" t="s">
@@ -3136,10 +3168,10 @@
       <c r="Y17" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Z17" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA17" s="27" t="s">
+      <c r="Z17" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA17" s="16" t="s">
         <v>47</v>
       </c>
       <c r="AB17" s="5" t="s">
@@ -3151,76 +3183,76 @@
       <c r="AD17" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="AE17" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF17" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG17" s="68" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH17" s="34" t="s">
+      <c r="AE17" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF17" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG17" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH17" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="AI17" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ17" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK17" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL17" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM17" s="47" t="s">
+      <c r="AI17" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ17" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK17" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL17" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM17" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="AN17" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="AO17" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="AP17" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="AQ17" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="AR17" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="AS17" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="AT17" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="AU17" s="27" t="s">
+      <c r="AN17" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO17" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP17" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ17" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR17" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="AS17" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT17" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU17" s="16" t="s">
         <v>47</v>
       </c>
       <c r="AV17" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AW17" s="29">
-        <v>0</v>
-      </c>
-      <c r="AX17" s="29">
-        <v>0</v>
-      </c>
-      <c r="AY17" s="30">
-        <v>0</v>
-      </c>
-      <c r="AZ17" s="29">
-        <v>0</v>
-      </c>
-      <c r="BA17" s="29">
-        <v>0</v>
-      </c>
-      <c r="BB17" s="30">
+      <c r="AW17" s="18">
+        <v>0</v>
+      </c>
+      <c r="AX17" s="18">
+        <v>0</v>
+      </c>
+      <c r="AY17" s="19">
+        <v>0</v>
+      </c>
+      <c r="AZ17" s="18">
+        <v>0</v>
+      </c>
+      <c r="BA17" s="18">
+        <v>0</v>
+      </c>
+      <c r="BB17" s="19">
         <v>0</v>
       </c>
       <c r="BC17"/>
@@ -3230,22 +3262,22 @@
       <c r="B18" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="22" t="s">
         <v>63</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="16" t="s">
         <v>47</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" s="34" t="s">
+      <c r="G18" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="23" t="s">
         <v>47</v>
       </c>
       <c r="I18" s="10" t="s">
@@ -3260,155 +3292,155 @@
       <c r="L18" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="M18" s="50">
+      <c r="M18" s="39">
         <v>1</v>
       </c>
-      <c r="N18" s="29">
-        <v>0</v>
-      </c>
-      <c r="O18" s="29">
-        <v>0</v>
-      </c>
-      <c r="P18" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q18" s="27" t="s">
+      <c r="N18" s="18">
+        <v>0</v>
+      </c>
+      <c r="O18" s="18">
+        <v>0</v>
+      </c>
+      <c r="P18" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q18" s="16" t="s">
         <v>47</v>
       </c>
       <c r="R18" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="S18" s="50">
+      <c r="S18" s="39">
         <v>1</v>
       </c>
-      <c r="T18" s="29">
-        <v>0</v>
-      </c>
-      <c r="U18" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="V18" s="27" t="s">
+      <c r="T18" s="18">
+        <v>0</v>
+      </c>
+      <c r="U18" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="V18" s="16" t="s">
         <v>47</v>
       </c>
       <c r="W18" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="X18" s="29">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA18" s="27" t="s">
+      <c r="X18" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA18" s="16" t="s">
         <v>47</v>
       </c>
       <c r="AB18" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AC18" s="29">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="29">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF18" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG18" s="68" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH18" s="34" t="s">
+      <c r="AC18" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF18" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG18" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH18" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="AI18" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ18" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK18" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL18" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM18" s="47" t="s">
+      <c r="AI18" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ18" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK18" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL18" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM18" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="AN18" s="53" t="s">
+      <c r="AN18" s="42" t="s">
         <v>47</v>
       </c>
       <c r="AO18" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AP18" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="AQ18" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="AR18" s="71" t="s">
-        <v>47</v>
-      </c>
-      <c r="AS18" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="AT18" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="AU18" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="AV18" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW18" s="29">
-        <v>0</v>
-      </c>
-      <c r="AX18" s="29">
-        <v>0</v>
-      </c>
-      <c r="AY18" s="30">
-        <v>0</v>
-      </c>
-      <c r="AZ18" s="29">
-        <v>0</v>
-      </c>
-      <c r="BA18" s="29">
-        <v>0</v>
-      </c>
-      <c r="BB18" s="30">
+      <c r="AP18" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ18" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR18" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="AS18" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT18" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU18" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV18" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW18" s="18">
+        <v>0</v>
+      </c>
+      <c r="AX18" s="18">
+        <v>0</v>
+      </c>
+      <c r="AY18" s="19">
+        <v>0</v>
+      </c>
+      <c r="AZ18" s="18">
+        <v>0</v>
+      </c>
+      <c r="BA18" s="18">
+        <v>0</v>
+      </c>
+      <c r="BB18" s="19">
         <v>0</v>
       </c>
       <c r="BC18"/>
       <c r="BD18"/>
     </row>
     <row r="19" spans="1:56">
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="22" t="s">
         <v>67</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="34" t="s">
+      <c r="E19" s="23" t="s">
         <v>50</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="47" t="s">
+      <c r="G19" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="H19" s="34" t="s">
+      <c r="H19" s="23" t="s">
         <v>50</v>
       </c>
       <c r="I19" s="10" t="s">
@@ -3423,130 +3455,130 @@
       <c r="L19" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="M19" s="29">
-        <v>0</v>
-      </c>
-      <c r="N19" s="29">
-        <v>0</v>
-      </c>
-      <c r="O19" s="29">
-        <v>0</v>
-      </c>
-      <c r="P19" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q19" s="27" t="s">
+      <c r="M19" s="18">
+        <v>0</v>
+      </c>
+      <c r="N19" s="18">
+        <v>0</v>
+      </c>
+      <c r="O19" s="18">
+        <v>0</v>
+      </c>
+      <c r="P19" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q19" s="16" t="s">
         <v>47</v>
       </c>
       <c r="R19" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="S19" s="29">
-        <v>0</v>
-      </c>
-      <c r="T19" s="29">
-        <v>0</v>
-      </c>
-      <c r="U19" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="V19" s="27" t="s">
+      <c r="S19" s="18">
+        <v>0</v>
+      </c>
+      <c r="T19" s="18">
+        <v>0</v>
+      </c>
+      <c r="U19" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="V19" s="16" t="s">
         <v>47</v>
       </c>
       <c r="W19" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="X19" s="29">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA19" s="27" t="s">
+      <c r="X19" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA19" s="16" t="s">
         <v>47</v>
       </c>
       <c r="AB19" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AC19" s="29">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="29">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF19" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG19" s="68" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH19" s="34" t="s">
+      <c r="AC19" s="18">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF19" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG19" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH19" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="AI19" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ19" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK19" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL19" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM19" s="71" t="s">
-        <v>47</v>
-      </c>
-      <c r="AN19" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="AO19" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="AP19" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="AQ19" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="AR19" s="71" t="s">
-        <v>47</v>
-      </c>
-      <c r="AS19" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="AT19" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="AU19" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="AV19" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW19" s="29">
-        <v>0</v>
-      </c>
-      <c r="AX19" s="29">
-        <v>0</v>
-      </c>
-      <c r="AY19" s="30">
-        <v>0</v>
-      </c>
-      <c r="AZ19" s="29">
-        <v>0</v>
-      </c>
-      <c r="BA19" s="29">
-        <v>0</v>
-      </c>
-      <c r="BB19" s="30">
+      <c r="AI19" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ19" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK19" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL19" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM19" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN19" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO19" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP19" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ19" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR19" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="AS19" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT19" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU19" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV19" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW19" s="18">
+        <v>0</v>
+      </c>
+      <c r="AX19" s="18">
+        <v>0</v>
+      </c>
+      <c r="AY19" s="19">
+        <v>0</v>
+      </c>
+      <c r="AZ19" s="18">
+        <v>0</v>
+      </c>
+      <c r="BA19" s="18">
+        <v>0</v>
+      </c>
+      <c r="BB19" s="19">
         <v>0</v>
       </c>
       <c r="BC19"/>
@@ -3556,22 +3588,22 @@
       <c r="B20" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="22" t="s">
         <v>68</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="E20" s="23" t="s">
         <v>53</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="47" t="s">
+      <c r="G20" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="H20" s="34" t="s">
+      <c r="H20" s="23" t="s">
         <v>53</v>
       </c>
       <c r="I20" s="10" t="s">
@@ -3586,291 +3618,291 @@
       <c r="L20" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="M20" s="50">
+      <c r="M20" s="39">
         <v>2</v>
       </c>
-      <c r="N20" s="29">
-        <v>0</v>
-      </c>
-      <c r="O20" s="29">
-        <v>0</v>
-      </c>
-      <c r="P20" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q20" s="27" t="s">
+      <c r="N20" s="18">
+        <v>0</v>
+      </c>
+      <c r="O20" s="18">
+        <v>0</v>
+      </c>
+      <c r="P20" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q20" s="16" t="s">
         <v>47</v>
       </c>
       <c r="R20" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="S20" s="29">
-        <v>0</v>
-      </c>
-      <c r="T20" s="29">
-        <v>0</v>
-      </c>
-      <c r="U20" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="V20" s="27" t="s">
+      <c r="S20" s="18">
+        <v>0</v>
+      </c>
+      <c r="T20" s="18">
+        <v>0</v>
+      </c>
+      <c r="U20" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="V20" s="16" t="s">
         <v>47</v>
       </c>
       <c r="W20" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="X20" s="29">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA20" s="27" t="s">
+      <c r="X20" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA20" s="16" t="s">
         <v>47</v>
       </c>
       <c r="AB20" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AC20" s="50">
+      <c r="AC20" s="39">
         <v>2</v>
       </c>
-      <c r="AD20" s="29">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF20" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG20" s="68" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH20" s="34" t="s">
+      <c r="AD20" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF20" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG20" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH20" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="AI20" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ20" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK20" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL20" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM20" s="47" t="s">
+      <c r="AI20" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ20" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK20" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL20" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM20" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="AN20" s="53" t="s">
+      <c r="AN20" s="42" t="s">
         <v>47</v>
       </c>
       <c r="AO20" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AP20" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="AQ20" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="AR20" s="71" t="s">
-        <v>47</v>
-      </c>
-      <c r="AS20" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="AT20" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="AU20" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="AV20" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW20" s="29">
-        <v>0</v>
-      </c>
-      <c r="AX20" s="29">
-        <v>0</v>
-      </c>
-      <c r="AY20" s="30">
-        <v>0</v>
-      </c>
-      <c r="AZ20" s="29">
-        <v>0</v>
-      </c>
-      <c r="BA20" s="29">
-        <v>0</v>
-      </c>
-      <c r="BB20" s="30">
+      <c r="AP20" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ20" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR20" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="AS20" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT20" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU20" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV20" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW20" s="18">
+        <v>0</v>
+      </c>
+      <c r="AX20" s="18">
+        <v>0</v>
+      </c>
+      <c r="AY20" s="19">
+        <v>0</v>
+      </c>
+      <c r="AZ20" s="18">
+        <v>0</v>
+      </c>
+      <c r="BA20" s="18">
+        <v>0</v>
+      </c>
+      <c r="BB20" s="19">
         <v>0</v>
       </c>
       <c r="BC20"/>
       <c r="BD20"/>
     </row>
     <row r="21" spans="1:56">
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="41" t="s">
         <v>30</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="E21" s="16" t="s">
         <v>47</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G21" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" s="27" t="s">
+      <c r="G21" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="16" t="s">
         <v>47</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="J21" s="31" t="s">
+      <c r="J21" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="K21" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="L21" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="M21" s="50">
+      <c r="K21" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="L21" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="M21" s="39">
         <v>1</v>
       </c>
-      <c r="N21" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="O21" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="P21" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q21" s="27" t="s">
+      <c r="N21" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="O21" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="P21" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q21" s="16" t="s">
         <v>47</v>
       </c>
       <c r="R21" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="S21" s="50">
+      <c r="S21" s="39">
         <v>2</v>
       </c>
-      <c r="T21" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="U21" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="V21" s="27" t="s">
+      <c r="T21" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="U21" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="V21" s="16" t="s">
         <v>47</v>
       </c>
       <c r="W21" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="X21" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y21" s="50">
+      <c r="X21" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y21" s="39">
         <v>1</v>
       </c>
-      <c r="Z21" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA21" s="27" t="s">
+      <c r="Z21" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA21" s="16" t="s">
         <v>47</v>
       </c>
       <c r="AB21" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AC21" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD21" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE21" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF21" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG21" s="68" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH21" s="34" t="s">
+      <c r="AC21" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD21" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE21" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF21" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG21" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH21" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="AI21" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ21" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK21" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL21" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM21" s="47" t="s">
+      <c r="AI21" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ21" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK21" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL21" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM21" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="AN21" s="53"/>
-      <c r="AO21" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="AP21" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="AQ21" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="AR21" s="71" t="s">
-        <v>47</v>
-      </c>
-      <c r="AS21" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="AT21" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="AU21" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="AV21" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW21" s="29">
-        <v>0</v>
-      </c>
-      <c r="AX21" s="29">
-        <v>0</v>
-      </c>
-      <c r="AY21" s="30">
-        <v>0</v>
-      </c>
-      <c r="AZ21" s="29">
-        <v>0</v>
-      </c>
-      <c r="BA21" s="29">
-        <v>0</v>
-      </c>
-      <c r="BB21" s="30">
+      <c r="AN21" s="42"/>
+      <c r="AO21" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP21" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ21" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR21" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="AS21" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT21" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU21" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV21" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW21" s="18">
+        <v>0</v>
+      </c>
+      <c r="AX21" s="18">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="19">
+        <v>0</v>
+      </c>
+      <c r="AZ21" s="18">
+        <v>0</v>
+      </c>
+      <c r="BA21" s="18">
+        <v>0</v>
+      </c>
+      <c r="BB21" s="19">
         <v>0</v>
       </c>
       <c r="BC21"/>
@@ -3880,158 +3912,158 @@
       <c r="B22" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="32" t="s">
+      <c r="D22" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="34" t="s">
+      <c r="E22" s="23" t="s">
         <v>50</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="G22" s="47" t="s">
+      <c r="G22" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="34" t="s">
+      <c r="H22" s="23" t="s">
         <v>50</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="J22" s="31" t="s">
+      <c r="J22" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="K22" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="L22" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="M22" s="50">
+      <c r="K22" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="L22" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="M22" s="39">
         <v>2</v>
       </c>
-      <c r="N22" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O22" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="P22" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q22" s="27" t="s">
+      <c r="N22" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="O22" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="P22" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q22" s="16" t="s">
         <v>47</v>
       </c>
       <c r="R22" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="S22" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="T22" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="U22" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="V22" s="27" t="s">
+      <c r="S22" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="T22" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="U22" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="V22" s="16" t="s">
         <v>47</v>
       </c>
       <c r="W22" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="X22" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y22" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z22" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA22" s="27" t="s">
+      <c r="X22" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y22" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z22" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA22" s="16" t="s">
         <v>47</v>
       </c>
       <c r="AB22" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AC22" s="50">
+      <c r="AC22" s="39">
         <v>2</v>
       </c>
-      <c r="AD22" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE22" s="34" t="s">
+      <c r="AD22" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE22" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="AF22" s="34" t="s">
+      <c r="AF22" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="AG22" s="69" t="s">
+      <c r="AG22" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="AH22" s="34" t="s">
+      <c r="AH22" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="AI22" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ22" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK22" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL22" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM22" s="47" t="s">
+      <c r="AI22" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ22" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK22" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL22" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM22" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="AN22" s="53"/>
-      <c r="AO22" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="AP22" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="AQ22" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="AR22" s="71" t="s">
-        <v>47</v>
-      </c>
-      <c r="AS22" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="AT22" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="AU22" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="AV22" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW22" s="29">
-        <v>0</v>
-      </c>
-      <c r="AX22" s="29">
-        <v>0</v>
-      </c>
-      <c r="AY22" s="30">
-        <v>0</v>
-      </c>
-      <c r="AZ22" s="29">
-        <v>0</v>
-      </c>
-      <c r="BA22" s="29">
-        <v>0</v>
-      </c>
-      <c r="BB22" s="30">
+      <c r="AN22" s="42"/>
+      <c r="AO22" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP22" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ22" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR22" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="AS22" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT22" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU22" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV22" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW22" s="18">
+        <v>0</v>
+      </c>
+      <c r="AX22" s="18">
+        <v>0</v>
+      </c>
+      <c r="AY22" s="19">
+        <v>0</v>
+      </c>
+      <c r="AZ22" s="18">
+        <v>0</v>
+      </c>
+      <c r="BA22" s="18">
+        <v>0</v>
+      </c>
+      <c r="BB22" s="19">
         <v>0</v>
       </c>
       <c r="BC22"/>
@@ -4041,10 +4073,10 @@
       <c r="B23" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="34" t="s">
+      <c r="D23" s="23" t="s">
         <v>66</v>
       </c>
       <c r="E23" s="6" t="s">
@@ -4071,131 +4103,131 @@
       <c r="L23" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="M23" s="50">
+      <c r="M23" s="39">
         <v>3</v>
       </c>
-      <c r="N23" s="50">
+      <c r="N23" s="39">
         <v>3</v>
       </c>
-      <c r="O23" s="50">
+      <c r="O23" s="39">
         <v>1</v>
       </c>
-      <c r="P23" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q23" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="R23" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="S23" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="T23" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="U23" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="V23" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="W23" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="X23" s="50">
+      <c r="P23" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q23" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="R23" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="S23" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="T23" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="U23" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="V23" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="W23" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="X23" s="39">
         <v>3</v>
       </c>
-      <c r="Y23" s="50">
+      <c r="Y23" s="39">
         <v>2</v>
       </c>
-      <c r="Z23" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA23" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB23" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC23" s="50">
+      <c r="Z23" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA23" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB23" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC23" s="39">
         <v>8</v>
       </c>
-      <c r="AD23" s="29">
-        <v>0</v>
-      </c>
-      <c r="AE23" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF23" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG23" s="70" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH23" s="34" t="s">
+      <c r="AD23" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF23" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG23" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH23" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="AI23" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ23" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK23" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL23" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM23" s="47" t="s">
+      <c r="AI23" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ23" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK23" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL23" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM23" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="AN23" s="53"/>
+      <c r="AN23" s="42"/>
       <c r="AO23" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AP23" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="AQ23" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="AR23" s="71"/>
-      <c r="AS23" s="53"/>
-      <c r="AT23" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="AU23" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="AV23" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW23" s="29">
-        <v>0</v>
-      </c>
-      <c r="AX23" s="29">
-        <v>0</v>
-      </c>
-      <c r="AY23" s="30">
-        <v>0</v>
-      </c>
-      <c r="AZ23" s="29">
-        <v>0</v>
-      </c>
-      <c r="BA23" s="29">
-        <v>0</v>
-      </c>
-      <c r="BB23" s="30">
+      <c r="AP23" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ23" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR23" s="59"/>
+      <c r="AS23" s="42"/>
+      <c r="AT23" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU23" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AV23" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW23" s="18">
+        <v>0</v>
+      </c>
+      <c r="AX23" s="18">
+        <v>0</v>
+      </c>
+      <c r="AY23" s="19">
+        <v>0</v>
+      </c>
+      <c r="AZ23" s="18">
+        <v>0</v>
+      </c>
+      <c r="BA23" s="18">
+        <v>0</v>
+      </c>
+      <c r="BB23" s="19">
         <v>0</v>
       </c>
       <c r="BC23"/>
       <c r="BD23"/>
     </row>
     <row r="24" spans="1:56">
-      <c r="B24" s="52" t="s">
+      <c r="B24" s="41" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -4228,126 +4260,126 @@
       <c r="L24" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="M24" s="50">
+      <c r="M24" s="39">
         <v>1</v>
       </c>
-      <c r="N24" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="O24" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="P24" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q24" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="R24" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="S24" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="T24" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="U24" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="V24" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="W24" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="X24" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y24" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z24" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA24" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB24" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC24" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="AD24" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE24" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF24" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG24" s="70" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH24" s="54" t="s">
+      <c r="N24" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="O24" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="P24" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q24" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="R24" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="S24" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="T24" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="U24" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="V24" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="W24" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="X24" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y24" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z24" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA24" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB24" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC24" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD24" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE24" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF24" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG24" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH24" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="AI24" s="54" t="s">
+      <c r="AI24" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="AJ24" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK24" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL24" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM24" s="81" t="s">
+      <c r="AJ24" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK24" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL24" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM24" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="AN24" s="54" t="s">
+      <c r="AN24" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="AO24" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="AP24" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="AQ24" s="27" t="s">
+      <c r="AO24" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP24" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ24" s="16" t="s">
         <v>47</v>
       </c>
       <c r="AR24"/>
       <c r="AS24"/>
-      <c r="AT24" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="AU24" s="27" t="s">
+      <c r="AT24" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU24" s="16" t="s">
         <v>47</v>
       </c>
       <c r="AV24" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AW24" s="29">
-        <v>0</v>
-      </c>
-      <c r="AX24" s="29">
-        <v>0</v>
-      </c>
-      <c r="AY24" s="30">
-        <v>0</v>
-      </c>
-      <c r="AZ24" s="29">
-        <v>0</v>
-      </c>
-      <c r="BA24" s="29">
-        <v>0</v>
-      </c>
-      <c r="BB24" s="30">
+      <c r="AW24" s="18">
+        <v>0</v>
+      </c>
+      <c r="AX24" s="18">
+        <v>0</v>
+      </c>
+      <c r="AY24" s="19">
+        <v>0</v>
+      </c>
+      <c r="AZ24" s="18">
+        <v>0</v>
+      </c>
+      <c r="BA24" s="18">
+        <v>0</v>
+      </c>
+      <c r="BB24" s="19">
         <v>0</v>
       </c>
       <c r="BC24"/>
@@ -4357,10 +4389,10 @@
       <c r="B25" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="23" t="s">
         <v>66</v>
       </c>
       <c r="E25" s="6" t="s">
@@ -4387,143 +4419,143 @@
       <c r="L25" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="M25" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="N25" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="O25" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="P25" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q25" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="R25" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="S25" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="T25" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="U25" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="V25" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="W25" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="X25" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y25" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z25" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA25" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB25" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC25" s="50">
+      <c r="M25" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="N25" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="O25" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="P25" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q25" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="R25" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="S25" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="T25" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="U25" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="V25" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="W25" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="X25" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y25" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z25" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA25" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB25" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC25" s="39">
         <v>1</v>
       </c>
-      <c r="AD25" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE25" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF25" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG25" s="70" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH25" s="34" t="s">
+      <c r="AD25" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE25" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF25" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG25" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH25" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="AI25" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ25" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK25" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL25" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM25" s="47" t="s">
+      <c r="AI25" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ25" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK25" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL25" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM25" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="AN25" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="AO25" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="AP25" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="AQ25" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="AR25" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="AS25" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="AT25" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="AU25" s="27" t="s">
+      <c r="AN25" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO25" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP25" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ25" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR25" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="AS25" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT25" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU25" s="16" t="s">
         <v>47</v>
       </c>
       <c r="AV25" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AW25" s="29">
-        <v>0</v>
-      </c>
-      <c r="AX25" s="29">
-        <v>0</v>
-      </c>
-      <c r="AY25" s="30">
-        <v>0</v>
-      </c>
-      <c r="AZ25" s="29">
-        <v>0</v>
-      </c>
-      <c r="BA25" s="29">
-        <v>0</v>
-      </c>
-      <c r="BB25" s="30">
+      <c r="AW25" s="18">
+        <v>0</v>
+      </c>
+      <c r="AX25" s="18">
+        <v>0</v>
+      </c>
+      <c r="AY25" s="19">
+        <v>0</v>
+      </c>
+      <c r="AZ25" s="18">
+        <v>0</v>
+      </c>
+      <c r="BA25" s="18">
+        <v>0</v>
+      </c>
+      <c r="BB25" s="19">
         <v>0</v>
       </c>
       <c r="BC25"/>
       <c r="BD25"/>
     </row>
     <row r="26" spans="1:56">
-      <c r="B26" s="51" t="s">
+      <c r="B26" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="82" t="s">
+      <c r="C26" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="23" t="s">
         <v>66</v>
       </c>
       <c r="E26" s="4" t="s">
@@ -4550,109 +4582,109 @@
       <c r="L26" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="M26" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="N26" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="O26" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="P26" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q26" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="R26" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="S26" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="T26" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="U26" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="V26" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="W26" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="X26" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y26" s="50">
+      <c r="M26" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="N26" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="O26" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="P26" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q26" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="R26" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="S26" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="T26" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="U26" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="V26" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="W26" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="X26" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y26" s="39">
         <v>1</v>
       </c>
-      <c r="Z26" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA26" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB26" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC26" s="50">
+      <c r="Z26" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA26" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB26" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC26" s="39">
         <v>1</v>
       </c>
-      <c r="AD26" s="29">
-        <v>0</v>
-      </c>
-      <c r="AE26" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF26" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG26" s="70" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH26" s="34" t="s">
+      <c r="AD26" s="18">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF26" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG26" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH26" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="AI26" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ26" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="AK26" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL26" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="AM26" s="47" t="s">
+      <c r="AI26" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ26" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK26" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AL26" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM26" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="AN26" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="AO26" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="AP26" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="AQ26" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="AR26" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="AS26" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="AT26" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="AU26" s="27" t="s">
+      <c r="AN26" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO26" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP26" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ26" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR26" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="AS26" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT26" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AU26" s="16" t="s">
         <v>47</v>
       </c>
       <c r="AV26" s="5" t="s">
@@ -4670,6 +4702,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="AE2:AG2"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
     <mergeCell ref="AZ1:BB1"/>
     <mergeCell ref="AZ2:BB2"/>
     <mergeCell ref="BC1:BE1"/>
@@ -4686,19 +4731,6 @@
     <mergeCell ref="AT2:AV2"/>
     <mergeCell ref="AW1:AY1"/>
     <mergeCell ref="AW2:AY2"/>
-    <mergeCell ref="AE2:AG2"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="J2:L2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4709,4 +4741,1025 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L181"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="9" max="9" width="10.25" style="85" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.375" style="84" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="I1" s="85">
+        <f>AVERAGE(K:K)</f>
+        <v>4.9154266918573386</v>
+      </c>
+      <c r="J1">
+        <f>_xlfn.STDEV.P(K:K)</f>
+        <v>2.4863062504359199</v>
+      </c>
+      <c r="K1" s="84">
+        <v>7.0449051171293702</v>
+      </c>
+      <c r="L1" s="62"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K2" s="84">
+        <v>7.1685798972640304</v>
+      </c>
+      <c r="L2" s="62"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3">
+        <v>0.1</v>
+      </c>
+      <c r="D3">
+        <v>3.87</v>
+      </c>
+      <c r="K3" s="84">
+        <v>7.3752557780097501</v>
+      </c>
+      <c r="L3" s="62"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="B4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4">
+        <v>2.17</v>
+      </c>
+      <c r="D4">
+        <v>6.98</v>
+      </c>
+      <c r="K4" s="84">
+        <v>7.7213486126179403</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5">
+        <v>0.09</v>
+      </c>
+      <c r="D5">
+        <v>4.01</v>
+      </c>
+      <c r="K5" s="84">
+        <v>7.4564545551762</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6">
+        <v>1.37</v>
+      </c>
+      <c r="D6">
+        <v>5.52</v>
+      </c>
+      <c r="K6" s="84">
+        <v>7.3505161718339904</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7">
+        <v>3.69</v>
+      </c>
+      <c r="D7">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="K7" s="84">
+        <v>7.2619270927027504</v>
+      </c>
+      <c r="L7" s="62"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="B8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8">
+        <v>4.92</v>
+      </c>
+      <c r="D8">
+        <v>2.48</v>
+      </c>
+      <c r="K8" s="84">
+        <v>7.46851327149633</v>
+      </c>
+      <c r="L8" s="62"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="K9" s="84">
+        <v>7.3317149697264599</v>
+      </c>
+      <c r="L9" s="62"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="K10" s="84">
+        <v>7.6916568228105398</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="K11" s="84">
+        <v>7.8164169836918003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="K12" s="84">
+        <v>7.3375877435385899</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="K13" s="84">
+        <v>7.3343293503005302</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="K14" s="84">
+        <v>7.2527624180531802</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="K15" s="84">
+        <v>7.1404530431011501</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="K16" s="84">
+        <v>7.8917046593300997</v>
+      </c>
+    </row>
+    <row r="17" spans="11:11">
+      <c r="K17" s="84">
+        <v>7.29233717617387</v>
+      </c>
+    </row>
+    <row r="18" spans="11:11">
+      <c r="K18" s="84">
+        <v>7.2868764117506997</v>
+      </c>
+    </row>
+    <row r="19" spans="11:11">
+      <c r="K19" s="84">
+        <v>7.2377781919234403</v>
+      </c>
+    </row>
+    <row r="20" spans="11:11">
+      <c r="K20" s="84">
+        <v>7.3581937527330297</v>
+      </c>
+    </row>
+    <row r="21" spans="11:11">
+      <c r="K21" s="84">
+        <v>7.2806971953847404</v>
+      </c>
+    </row>
+    <row r="22" spans="11:11">
+      <c r="K22" s="84">
+        <v>7.3440728505730597</v>
+      </c>
+    </row>
+    <row r="23" spans="11:11">
+      <c r="K23" s="84">
+        <v>7.5527620842141401</v>
+      </c>
+    </row>
+    <row r="24" spans="11:11">
+      <c r="K24" s="84">
+        <v>7.9841219587029197</v>
+      </c>
+    </row>
+    <row r="25" spans="11:11">
+      <c r="K25" s="84">
+        <v>7.6638772587034696</v>
+      </c>
+    </row>
+    <row r="26" spans="11:11">
+      <c r="K26" s="84">
+        <v>7.4506607962115297</v>
+      </c>
+    </row>
+    <row r="27" spans="11:11">
+      <c r="K27" s="84">
+        <v>7.5527620842141401</v>
+      </c>
+    </row>
+    <row r="28" spans="11:11">
+      <c r="K28" s="84">
+        <v>7.2262090101006704</v>
+      </c>
+    </row>
+    <row r="29" spans="11:11">
+      <c r="K29" s="84">
+        <v>7.3944931072190299</v>
+      </c>
+    </row>
+    <row r="30" spans="11:11">
+      <c r="K30" s="84">
+        <v>7.5621616312256501</v>
+      </c>
+    </row>
+    <row r="31" spans="11:11">
+      <c r="K31" s="84">
+        <v>7.3827464497389101</v>
+      </c>
+    </row>
+    <row r="32" spans="11:11">
+      <c r="K32" s="84">
+        <v>7.2772477266314803</v>
+      </c>
+    </row>
+    <row r="33" spans="11:11">
+      <c r="K33" s="84">
+        <v>7.2896105214511602</v>
+      </c>
+    </row>
+    <row r="34" spans="11:11">
+      <c r="K34" s="84">
+        <v>7.6760099320288804</v>
+      </c>
+    </row>
+    <row r="35" spans="11:11">
+      <c r="K35" s="84">
+        <v>7.71289096149013</v>
+      </c>
+    </row>
+    <row r="36" spans="11:11">
+      <c r="K36" s="84">
+        <v>7.54855597916987</v>
+      </c>
+    </row>
+    <row r="37" spans="11:11">
+      <c r="K37" s="84">
+        <v>7.4036702900123696</v>
+      </c>
+    </row>
+    <row r="38" spans="11:11">
+      <c r="K38" s="84">
+        <v>7.9294865233142797</v>
+      </c>
+    </row>
+    <row r="39" spans="11:11">
+      <c r="K39" s="84">
+        <v>7.4073177104694103</v>
+      </c>
+    </row>
+    <row r="40" spans="11:11">
+      <c r="K40" s="84">
+        <v>7.4547199493639997</v>
+      </c>
+    </row>
+    <row r="41" spans="11:11">
+      <c r="K41" s="84">
+        <v>6.8575140625453903</v>
+      </c>
+    </row>
+    <row r="42" spans="11:11">
+      <c r="K42" s="84">
+        <v>7.2909747781429797</v>
+      </c>
+    </row>
+    <row r="43" spans="11:11">
+      <c r="K43" s="84">
+        <v>7.36201055125973</v>
+      </c>
+    </row>
+    <row r="44" spans="11:11">
+      <c r="K44" s="84">
+        <v>7.7349961940227798</v>
+      </c>
+    </row>
+    <row r="45" spans="11:11">
+      <c r="K45" s="84">
+        <v>6.92165818415112</v>
+      </c>
+    </row>
+    <row r="46" spans="11:11">
+      <c r="K46" s="84">
+        <v>7.3427791893318402</v>
+      </c>
+    </row>
+    <row r="47" spans="11:11">
+      <c r="K47" s="84">
+        <v>7.2930176797727801</v>
+      </c>
+    </row>
+    <row r="48" spans="11:11">
+      <c r="K48" s="84">
+        <v>7.6815603625595301</v>
+      </c>
+    </row>
+    <row r="49" spans="11:11">
+      <c r="K49" s="84">
+        <v>7.2786289423206796</v>
+      </c>
+    </row>
+    <row r="50" spans="11:11">
+      <c r="K50" s="84">
+        <v>7.1380730340443401</v>
+      </c>
+    </row>
+    <row r="51" spans="11:11">
+      <c r="K51" s="84">
+        <v>7.1853870155804103</v>
+      </c>
+    </row>
+    <row r="52" spans="11:11">
+      <c r="K52" s="84">
+        <v>7.8148034294893503</v>
+      </c>
+    </row>
+    <row r="53" spans="11:11">
+      <c r="K53" s="84">
+        <v>7.3330230143864803</v>
+      </c>
+    </row>
+    <row r="54" spans="11:11">
+      <c r="K54" s="84">
+        <v>7.2868764117506997</v>
+      </c>
+    </row>
+    <row r="55" spans="11:11">
+      <c r="K55" s="84">
+        <v>7.6857030612345403</v>
+      </c>
+    </row>
+    <row r="56" spans="11:11">
+      <c r="K56" s="84">
+        <v>7.3440728505730597</v>
+      </c>
+    </row>
+    <row r="57" spans="11:11">
+      <c r="K57" s="84">
+        <v>7.3251489579555704</v>
+      </c>
+    </row>
+    <row r="58" spans="11:11">
+      <c r="K58" s="84">
+        <v>7.3145528323240798</v>
+      </c>
+    </row>
+    <row r="59" spans="11:11">
+      <c r="K59" s="84">
+        <v>7.6014023345837298</v>
+      </c>
+    </row>
+    <row r="60" spans="11:11">
+      <c r="K60" s="84">
+        <v>7.4500795698074898</v>
+      </c>
+    </row>
+    <row r="61" spans="11:11">
+      <c r="K61" s="84">
+        <v>7.3524411002435803</v>
+      </c>
+    </row>
+    <row r="62" spans="11:11">
+      <c r="K62" s="84">
+        <v>7.2661287795564498</v>
+      </c>
+    </row>
+    <row r="63" spans="11:11">
+      <c r="K63" s="84">
+        <v>7.1853870155804103</v>
+      </c>
+    </row>
+    <row r="64" spans="11:11">
+      <c r="K64" s="84">
+        <v>7.5688956634069902</v>
+      </c>
+    </row>
+    <row r="65" spans="11:11">
+      <c r="K65" s="84">
+        <v>7.1412451223504902</v>
+      </c>
+    </row>
+    <row r="66" spans="11:11">
+      <c r="K66" s="84">
+        <v>7.3727463664043196</v>
+      </c>
+    </row>
+    <row r="67" spans="11:11">
+      <c r="K67" s="84">
+        <v>7.69666708152646</v>
+      </c>
+    </row>
+    <row r="68" spans="11:11">
+      <c r="K68" s="84">
+        <v>7.8834463541377398</v>
+      </c>
+    </row>
+    <row r="69" spans="11:11">
+      <c r="K69" s="84">
+        <v>7.4866133131399497</v>
+      </c>
+    </row>
+    <row r="70" spans="11:11">
+      <c r="K70" s="84">
+        <v>7.35883089834235</v>
+      </c>
+    </row>
+    <row r="71" spans="11:11">
+      <c r="K71" s="84">
+        <v>7.3498737047383296</v>
+      </c>
+    </row>
+    <row r="72" spans="11:11">
+      <c r="K72" s="84">
+        <v>7.4151751096132896</v>
+      </c>
+    </row>
+    <row r="73" spans="11:11">
+      <c r="K73" s="84">
+        <v>7.4139702901904396</v>
+      </c>
+    </row>
+    <row r="74" spans="11:11">
+      <c r="K74" s="84">
+        <v>7.6615270813585097</v>
+      </c>
+    </row>
+    <row r="75" spans="11:11">
+      <c r="K75" s="84">
+        <v>7.8355792466699601</v>
+      </c>
+    </row>
+    <row r="76" spans="11:11">
+      <c r="K76" s="84">
+        <v>7.2930176797727801</v>
+      </c>
+    </row>
+    <row r="77" spans="11:11">
+      <c r="K77" s="84">
+        <v>7.22548147278229</v>
+      </c>
+    </row>
+    <row r="78" spans="11:11">
+      <c r="K78" s="84">
+        <v>7.3689704021947904</v>
+      </c>
+    </row>
+    <row r="79" spans="11:11">
+      <c r="K79" s="84">
+        <v>7.2861917147023796</v>
+      </c>
+    </row>
+    <row r="80" spans="11:11">
+      <c r="K80" s="84">
+        <v>7.97968130238774</v>
+      </c>
+    </row>
+    <row r="81" spans="11:11">
+      <c r="K81" s="84">
+        <v>7.3777589082278698</v>
+      </c>
+    </row>
+    <row r="82" spans="11:11">
+      <c r="K82" s="84">
+        <v>7.4483338608974696</v>
+      </c>
+    </row>
+    <row r="83" spans="11:11">
+      <c r="K83" s="84">
+        <v>7.90691548867858</v>
+      </c>
+    </row>
+    <row r="84" spans="11:11">
+      <c r="K84" s="84">
+        <v>7.2086003379601902</v>
+      </c>
+    </row>
+    <row r="85" spans="11:11">
+      <c r="K85" s="84">
+        <v>6.5553568918106597</v>
+      </c>
+    </row>
+    <row r="86" spans="11:11">
+      <c r="K86" s="84">
+        <v>6.36990098282822</v>
+      </c>
+    </row>
+    <row r="87" spans="11:11">
+      <c r="K87" s="84">
+        <v>6.2245584292753602</v>
+      </c>
+    </row>
+    <row r="88" spans="11:11">
+      <c r="K88" s="84">
+        <v>5.8721177894754097</v>
+      </c>
+    </row>
+    <row r="89" spans="11:11">
+      <c r="K89" s="84">
+        <v>5.5645204073226902</v>
+      </c>
+    </row>
+    <row r="90" spans="11:11">
+      <c r="K90" s="84">
+        <v>5.3082676974011997</v>
+      </c>
+    </row>
+    <row r="91" spans="11:11">
+      <c r="K91" s="84">
+        <v>5.1059454739005803</v>
+      </c>
+    </row>
+    <row r="92" spans="11:11">
+      <c r="K92" s="84">
+        <v>4.8283137373022997</v>
+      </c>
+    </row>
+    <row r="93" spans="11:11">
+      <c r="K93" s="84">
+        <v>4.5643481914678299</v>
+      </c>
+    </row>
+    <row r="94" spans="11:11">
+      <c r="K94" s="84">
+        <v>4.4188406077965903</v>
+      </c>
+    </row>
+    <row r="95" spans="11:11">
+      <c r="K95" s="84">
+        <v>4.27666611901605</v>
+      </c>
+    </row>
+    <row r="96" spans="11:11">
+      <c r="K96" s="84">
+        <v>4.1588830833596697</v>
+      </c>
+    </row>
+    <row r="97" spans="11:11">
+      <c r="K97" s="84">
+        <v>4.0604430105464102</v>
+      </c>
+    </row>
+    <row r="98" spans="11:11">
+      <c r="K98" s="84">
+        <v>3.9702919135521202</v>
+      </c>
+    </row>
+    <row r="99" spans="11:11">
+      <c r="K99" s="84">
+        <v>3.8286413964890902</v>
+      </c>
+    </row>
+    <row r="100" spans="11:11">
+      <c r="K100" s="84">
+        <v>3.7135720667043</v>
+      </c>
+    </row>
+    <row r="101" spans="11:11">
+      <c r="K101" s="84">
+        <v>3.5835189384561099</v>
+      </c>
+    </row>
+    <row r="102" spans="11:11">
+      <c r="K102" s="84">
+        <v>3.4965075614664798</v>
+      </c>
+    </row>
+    <row r="103" spans="11:11">
+      <c r="K103" s="84">
+        <v>3.4657359027997199</v>
+      </c>
+    </row>
+    <row r="104" spans="11:11">
+      <c r="K104" s="84">
+        <v>3.3322045101751998</v>
+      </c>
+    </row>
+    <row r="105" spans="11:11">
+      <c r="K105" s="84">
+        <v>3.2958368660043198</v>
+      </c>
+    </row>
+    <row r="106" spans="11:11">
+      <c r="K106" s="84">
+        <v>3.17805383034794</v>
+      </c>
+    </row>
+    <row r="107" spans="11:11">
+      <c r="K107" s="84">
+        <v>3.0910424533583098</v>
+      </c>
+    </row>
+    <row r="108" spans="11:11">
+      <c r="K108" s="84">
+        <v>3.0445224377234199</v>
+      </c>
+    </row>
+    <row r="109" spans="11:11">
+      <c r="K109" s="84">
+        <v>3.0445224377234199</v>
+      </c>
+    </row>
+    <row r="110" spans="11:11">
+      <c r="K110" s="84">
+        <v>2.9444389791664398</v>
+      </c>
+    </row>
+    <row r="111" spans="11:11">
+      <c r="K111" s="84">
+        <v>2.9444389791664398</v>
+      </c>
+    </row>
+    <row r="112" spans="11:11">
+      <c r="K112" s="84">
+        <v>2.8903717578961601</v>
+      </c>
+    </row>
+    <row r="113" spans="11:11">
+      <c r="K113" s="84">
+        <v>2.8332133440562099</v>
+      </c>
+    </row>
+    <row r="114" spans="11:11">
+      <c r="K114" s="84">
+        <v>2.7725887222397798</v>
+      </c>
+    </row>
+    <row r="115" spans="11:11">
+      <c r="K115" s="84">
+        <v>2.7725887222397798</v>
+      </c>
+    </row>
+    <row r="116" spans="11:11">
+      <c r="K116" s="84">
+        <v>2.7080502011022101</v>
+      </c>
+    </row>
+    <row r="117" spans="11:11">
+      <c r="K117" s="84">
+        <v>2.63905732961525</v>
+      </c>
+    </row>
+    <row r="118" spans="11:11">
+      <c r="K118" s="84">
+        <v>2.5649493574615301</v>
+      </c>
+    </row>
+    <row r="119" spans="11:11">
+      <c r="K119" s="84">
+        <v>2.5649493574615301</v>
+      </c>
+    </row>
+    <row r="120" spans="11:11">
+      <c r="K120" s="84">
+        <v>2.5649493574615301</v>
+      </c>
+    </row>
+    <row r="121" spans="11:11">
+      <c r="K121" s="84">
+        <v>2.5649493574615301</v>
+      </c>
+    </row>
+    <row r="122" spans="11:11">
+      <c r="K122" s="84">
+        <v>2.5649493574615301</v>
+      </c>
+    </row>
+    <row r="123" spans="11:11">
+      <c r="K123" s="84">
+        <v>2.4849066497879999</v>
+      </c>
+    </row>
+    <row r="124" spans="11:11">
+      <c r="K124" s="84">
+        <v>2.4849066497879999</v>
+      </c>
+    </row>
+    <row r="125" spans="11:11">
+      <c r="K125" s="84">
+        <v>2.3978952727983698</v>
+      </c>
+    </row>
+    <row r="126" spans="11:11">
+      <c r="K126" s="84">
+        <v>2.3978952727983698</v>
+      </c>
+    </row>
+    <row r="127" spans="11:11">
+      <c r="K127" s="84">
+        <v>2.3978952727983698</v>
+      </c>
+    </row>
+    <row r="128" spans="11:11">
+      <c r="K128" s="84">
+        <v>2.3025850929940401</v>
+      </c>
+    </row>
+    <row r="129" spans="11:11">
+      <c r="K129" s="84">
+        <v>2.3025850929940401</v>
+      </c>
+    </row>
+    <row r="130" spans="11:11">
+      <c r="K130" s="84">
+        <v>2.3025850929940401</v>
+      </c>
+    </row>
+    <row r="131" spans="11:11">
+      <c r="K131" s="84">
+        <v>2.3025850929940401</v>
+      </c>
+    </row>
+    <row r="132" spans="11:11">
+      <c r="K132" s="84">
+        <v>2.3025850929940401</v>
+      </c>
+    </row>
+    <row r="133" spans="11:11">
+      <c r="K133" s="84">
+        <v>2.1972245773362098</v>
+      </c>
+    </row>
+    <row r="134" spans="11:11">
+      <c r="K134" s="84">
+        <v>2.1972245773362098</v>
+      </c>
+    </row>
+    <row r="135" spans="11:11">
+      <c r="K135" s="84">
+        <v>2.1972245773362098</v>
+      </c>
+    </row>
+    <row r="136" spans="11:11">
+      <c r="K136" s="84">
+        <v>2.1972245773362098</v>
+      </c>
+    </row>
+    <row r="137" spans="11:11">
+      <c r="K137" s="84">
+        <v>2.1972245773362098</v>
+      </c>
+    </row>
+    <row r="138" spans="11:11">
+      <c r="K138" s="84">
+        <v>2.1972245773362098</v>
+      </c>
+    </row>
+    <row r="139" spans="11:11">
+      <c r="K139" s="84">
+        <v>2.1972245773362098</v>
+      </c>
+    </row>
+    <row r="140" spans="11:11">
+      <c r="K140" s="84">
+        <v>2.07944154167983</v>
+      </c>
+    </row>
+    <row r="141" spans="11:11">
+      <c r="K141" s="84">
+        <v>2.07944154167983</v>
+      </c>
+    </row>
+    <row r="142" spans="11:11">
+      <c r="K142" s="84">
+        <v>2.07944154167983</v>
+      </c>
+    </row>
+    <row r="143" spans="11:11">
+      <c r="K143" s="84">
+        <v>2.07944154167983</v>
+      </c>
+    </row>
+    <row r="144" spans="11:11">
+      <c r="K144" s="84">
+        <v>2.07944154167983</v>
+      </c>
+    </row>
+    <row r="145" spans="11:11">
+      <c r="K145" s="84">
+        <v>2.07944154167983</v>
+      </c>
+    </row>
+    <row r="146" spans="11:11">
+      <c r="K146" s="84">
+        <v>2.07944154167983</v>
+      </c>
+    </row>
+    <row r="147" spans="11:11">
+      <c r="K147" s="84">
+        <v>1.9459101490553099</v>
+      </c>
+    </row>
+    <row r="148" spans="11:11">
+      <c r="K148" s="84">
+        <v>2.07944154167983</v>
+      </c>
+    </row>
+    <row r="149" spans="11:11">
+      <c r="K149" s="84">
+        <v>1.9459101490553099</v>
+      </c>
+    </row>
+    <row r="150" spans="11:11">
+      <c r="K150" s="84">
+        <v>1.9459101490553099</v>
+      </c>
+    </row>
+    <row r="151" spans="11:11">
+      <c r="K151" s="84">
+        <v>2.07944154167983</v>
+      </c>
+    </row>
+    <row r="152" spans="11:11">
+      <c r="K152" s="84">
+        <v>2.07944154167983</v>
+      </c>
+    </row>
+    <row r="153" spans="11:11">
+      <c r="K153" s="84">
+        <v>2.07944154167983</v>
+      </c>
+    </row>
+    <row r="154" spans="11:11">
+      <c r="K154" s="84">
+        <v>2.07944154167983</v>
+      </c>
+    </row>
+    <row r="155" spans="11:11">
+      <c r="K155" s="84">
+        <v>1.9459101490553099</v>
+      </c>
+    </row>
+    <row r="156" spans="11:11">
+      <c r="K156" s="84">
+        <v>1.9459101490553099</v>
+      </c>
+    </row>
+    <row r="157" spans="11:11">
+      <c r="K157" s="84">
+        <v>1.9459101490553099</v>
+      </c>
+    </row>
+    <row r="158" spans="11:11">
+      <c r="K158" s="84">
+        <v>1.9459101490553099</v>
+      </c>
+    </row>
+    <row r="159" spans="11:11">
+      <c r="K159" s="84">
+        <v>1.9459101490553099</v>
+      </c>
+    </row>
+    <row r="160" spans="11:11">
+      <c r="K160" s="84">
+        <v>1.9459101490553099</v>
+      </c>
+    </row>
+    <row r="161" spans="11:11">
+      <c r="K161" s="84">
+        <v>1.9459101490553099</v>
+      </c>
+    </row>
+    <row r="162" spans="11:11">
+      <c r="K162" s="84">
+        <v>1.9459101490553099</v>
+      </c>
+    </row>
+    <row r="163" spans="11:11">
+      <c r="K163" s="84">
+        <v>1.7917594692280501</v>
+      </c>
+    </row>
+    <row r="164" spans="11:11">
+      <c r="K164" s="84">
+        <v>1.7917594692280501</v>
+      </c>
+    </row>
+    <row r="165" spans="11:11">
+      <c r="K165" s="84">
+        <v>1.7917594692280501</v>
+      </c>
+    </row>
+    <row r="166" spans="11:11">
+      <c r="K166" s="84">
+        <v>1.9459101490553099</v>
+      </c>
+    </row>
+    <row r="167" spans="11:11">
+      <c r="K167" s="84">
+        <v>1.9459101490553099</v>
+      </c>
+    </row>
+    <row r="168" spans="11:11">
+      <c r="K168" s="84">
+        <v>1.9459101490553099</v>
+      </c>
+    </row>
+    <row r="169" spans="11:11">
+      <c r="K169" s="84">
+        <v>1.9459101490553099</v>
+      </c>
+    </row>
+    <row r="170" spans="11:11">
+      <c r="K170" s="84">
+        <v>1.9459101490553099</v>
+      </c>
+    </row>
+    <row r="171" spans="11:11">
+      <c r="K171" s="84">
+        <v>1.9459101490553099</v>
+      </c>
+    </row>
+    <row r="172" spans="11:11">
+      <c r="K172" s="84">
+        <v>1.9459101490553099</v>
+      </c>
+    </row>
+    <row r="173" spans="11:11">
+      <c r="K173" s="84">
+        <v>1.9459101490553099</v>
+      </c>
+    </row>
+    <row r="174" spans="11:11">
+      <c r="K174" s="84">
+        <v>1.9459101490553099</v>
+      </c>
+    </row>
+    <row r="175" spans="11:11">
+      <c r="K175" s="84">
+        <v>1.9459101490553099</v>
+      </c>
+    </row>
+    <row r="176" spans="11:11">
+      <c r="K176" s="84">
+        <v>1.9459101490553099</v>
+      </c>
+    </row>
+    <row r="177" spans="11:11">
+      <c r="K177" s="84">
+        <v>1.9459101490553099</v>
+      </c>
+    </row>
+    <row r="178" spans="11:11">
+      <c r="K178" s="84">
+        <v>1.9459101490553099</v>
+      </c>
+    </row>
+    <row r="179" spans="11:11">
+      <c r="K179" s="84">
+        <v>1.9459101490553099</v>
+      </c>
+    </row>
+    <row r="180" spans="11:11">
+      <c r="K180" s="84">
+        <v>1.9459101490553099</v>
+      </c>
+    </row>
+    <row r="181" spans="11:11">
+      <c r="K181" s="84">
+        <v>1.7917594692280501</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/comparison.xlsx
+++ b/comparison.xlsx
@@ -2,14 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
-  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="26740" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="26740" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="keywords-R" sheetId="2" r:id="rId2"/>
+    <sheet name="niagarino-compare" sheetId="1" r:id="rId1"/>
+    <sheet name="keywords-stats" sheetId="2" r:id="rId2"/>
+    <sheet name="word-stats" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="stdev_4u9525" localSheetId="2">'word-stats'!$B$2:$D$101</definedName>
+  </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -250,8 +254,21 @@
 </comments>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="stdev_4u9525.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="internalHD:Users:internship:Desktop:internship:detection:stdev_4u9525.csv" comma="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="121">
   <si>
     <t>Event</t>
   </si>
@@ -599,12 +616,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>std dev</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
     <t>event</t>
   </si>
   <si>
@@ -618,6 +629,39 @@
   </si>
   <si>
     <t>boston</t>
+  </si>
+  <si>
+    <t>royalbaby</t>
+  </si>
+  <si>
+    <t>mh17</t>
+  </si>
+  <si>
+    <t>keyword mean</t>
+  </si>
+  <si>
+    <t>baseline stddev</t>
+  </si>
+  <si>
+    <t>baseline mean</t>
+  </si>
+  <si>
+    <t>keyword stddev</t>
+  </si>
+  <si>
+    <t>baseline</t>
+  </si>
+  <si>
+    <t>&lt;= 4</t>
+  </si>
+  <si>
+    <t>&gt;= 10</t>
+  </si>
+  <si>
+    <t>idf stdev &gt; 1.8</t>
+  </si>
+  <si>
+    <t>idf stdev &lt; 0.3</t>
   </si>
 </sst>
 </file>
@@ -627,7 +671,7 @@
   <numFmts count="1">
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -718,6 +762,13 @@
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
+      <name val="Schriftart für Textkörper"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Schriftart für Textkörper"/>
       <family val="2"/>
     </font>
@@ -1076,7 +1127,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="133">
+  <cellStyleXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1210,8 +1261,74 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1344,8 +1461,9 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="133">
+  <cellStyles count="199">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
     <cellStyle name="20% - Accent2" xfId="24" builtinId="34"/>
     <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
@@ -1412,6 +1530,39 @@
     <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
@@ -1476,6 +1627,39 @@
     <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
     <cellStyle name="Input" xfId="5" builtinId="20"/>
     <cellStyle name="Neutral" xfId="23" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1483,6 +1667,788 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'keywords-stats'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>baseline stddev</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'keywords-stats'!$B$3:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>nepal_quake</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4u9525</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>boston_bombing</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>royalbaby</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>mh17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'keywords-stats'!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.065</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'keywords-stats'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>baseline mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'keywords-stats'!$B$3:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>nepal_quake</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4u9525</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>boston_bombing</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>royalbaby</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>mh17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'keywords-stats'!$D$3:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.69</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.89</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'keywords-stats'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>keyword stddev</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'keywords-stats'!$B$3:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>nepal_quake</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4u9525</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>boston_bombing</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>royalbaby</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>mh17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'keywords-stats'!$E$3:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.83</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'keywords-stats'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>keyword mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'keywords-stats'!$B$3:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>nepal_quake</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4u9525</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>boston_bombing</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>royalbaby</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>mh17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'keywords-stats'!$F$3:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.98</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.52</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2105735672"/>
+        <c:axId val="2102368280"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2105735672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2102368280"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2102368280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2105735672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'word-stats'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>&lt;= 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'word-stats'!$B$3:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>MH17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>boston</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>nepal_quake</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4u9525</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>qz8501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>nepal_quake2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'word-stats'!$C$3:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.034</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.044</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.035</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'word-stats'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>&gt;= 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'word-stats'!$B$3:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>MH17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>boston</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>nepal_quake</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4u9525</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>qz8501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>nepal_quake2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'word-stats'!$D$3:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'word-stats'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>idf stdev &gt; 1.8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'word-stats'!$B$3:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>MH17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>boston</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>nepal_quake</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4u9525</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>qz8501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>nepal_quake2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'word-stats'!$E$3:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'word-stats'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>idf stdev &lt; 0.3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'word-stats'!$B$3:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>MH17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>boston</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>nepal_quake</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4u9525</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>qz8501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>nepal_quake2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'word-stats'!$F$3:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.988</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.989</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.987</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.983</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.988</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.985</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2110378104"/>
+        <c:axId val="2110407000"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2110378104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2110407000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2110407000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2110378104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>905932</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>169333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>634999</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>59266</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>8467</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>8467</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="stdev_4u9525" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4745,10 +5711,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L181"/>
+  <dimension ref="B1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -4759,44 +5725,38 @@
     <col min="12" max="12" width="20.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="I1" s="85">
+    <row r="1" spans="2:12">
+      <c r="I1" s="85" t="e">
         <f>AVERAGE(K:K)</f>
-        <v>4.9154266918573386</v>
-      </c>
-      <c r="J1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J1" t="e">
         <f>_xlfn.STDEV.P(K:K)</f>
-        <v>2.4863062504359199</v>
-      </c>
-      <c r="K1" s="84">
-        <v>7.0449051171293702</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
-        <v>107</v>
-      </c>
+    <row r="2" spans="2:12">
       <c r="B2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
-      </c>
-      <c r="K2" s="84">
-        <v>7.1685798972640304</v>
+        <v>114</v>
+      </c>
+      <c r="E2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" t="s">
+        <v>112</v>
       </c>
       <c r="L2" s="62"/>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
+    <row r="3" spans="2:12">
+      <c r="B3" t="s">
         <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>109</v>
       </c>
       <c r="C3">
         <v>0.1</v>
@@ -4804,958 +5764,291 @@
       <c r="D3">
         <v>3.87</v>
       </c>
-      <c r="K3" s="84">
-        <v>7.3752557780097501</v>
+      <c r="E3">
+        <v>2.17</v>
+      </c>
+      <c r="F3">
+        <v>6.98</v>
       </c>
       <c r="L3" s="62"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="2:12">
       <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4">
+        <v>0.09</v>
+      </c>
+      <c r="D4">
+        <v>4.01</v>
+      </c>
+      <c r="E4">
+        <v>1.37</v>
+      </c>
+      <c r="F4">
+        <v>5.52</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D5">
+        <v>3.69</v>
+      </c>
+      <c r="E5">
+        <v>2.48</v>
+      </c>
+      <c r="F5">
+        <v>4.92</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" t="s">
         <v>110</v>
       </c>
-      <c r="C4">
+      <c r="C6">
+        <v>0.08</v>
+      </c>
+      <c r="D6">
+        <v>3.89</v>
+      </c>
+      <c r="E6">
         <v>2.17</v>
       </c>
-      <c r="D4">
-        <v>6.98</v>
-      </c>
-      <c r="K4" s="84">
-        <v>7.7213486126179403</v>
+      <c r="F6">
+        <v>6.2</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5">
-        <v>0.09</v>
-      </c>
-      <c r="D5">
-        <v>4.01</v>
-      </c>
-      <c r="K5" s="84">
-        <v>7.4564545551762</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="B6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6">
-        <v>1.37</v>
-      </c>
-      <c r="D6">
-        <v>5.52</v>
-      </c>
-      <c r="K6" s="84">
-        <v>7.3505161718339904</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
+    <row r="7" spans="2:12">
       <c r="B7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C7">
-        <v>3.69</v>
+        <v>0.15</v>
       </c>
       <c r="D7">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="K7" s="84">
-        <v>7.2619270927027504</v>
+        <v>3.72</v>
+      </c>
+      <c r="E7">
+        <v>1.83</v>
+      </c>
+      <c r="F7">
+        <v>4.4400000000000004</v>
       </c>
       <c r="L7" s="62"/>
     </row>
-    <row r="8" spans="1:12">
-      <c r="B8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C8">
-        <v>4.92</v>
-      </c>
-      <c r="D8">
-        <v>2.48</v>
-      </c>
-      <c r="K8" s="84">
-        <v>7.46851327149633</v>
-      </c>
+    <row r="8" spans="2:12">
       <c r="L8" s="62"/>
     </row>
-    <row r="9" spans="1:12">
-      <c r="K9" s="84">
-        <v>7.3317149697264599</v>
-      </c>
+    <row r="9" spans="2:12">
       <c r="L9" s="62"/>
     </row>
-    <row r="10" spans="1:12">
-      <c r="K10" s="84">
-        <v>7.6916568228105398</v>
+    <row r="18" spans="2:3">
+      <c r="B18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" t="s">
+        <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
-      <c r="K11" s="84">
-        <v>7.8164169836918003</v>
+    <row r="19" spans="2:3">
+      <c r="B19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" t="s">
+        <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
-      <c r="K12" s="84">
-        <v>7.3375877435385899</v>
+    <row r="21" spans="2:3">
+      <c r="B21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
-      <c r="K13" s="84">
-        <v>7.3343293503005302</v>
+    <row r="23" spans="2:3">
+      <c r="B23" t="s">
+        <v>107</v>
+      </c>
+      <c r="C23" t="s">
+        <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
-      <c r="K14" s="84">
-        <v>7.2527624180531802</v>
+    <row r="25" spans="2:3">
+      <c r="B25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" t="s">
+        <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
-      <c r="K15" s="84">
-        <v>7.1404530431011501</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="K16" s="84">
-        <v>7.8917046593300997</v>
-      </c>
-    </row>
-    <row r="17" spans="11:11">
-      <c r="K17" s="84">
-        <v>7.29233717617387</v>
-      </c>
-    </row>
-    <row r="18" spans="11:11">
-      <c r="K18" s="84">
-        <v>7.2868764117506997</v>
-      </c>
-    </row>
-    <row r="19" spans="11:11">
-      <c r="K19" s="84">
-        <v>7.2377781919234403</v>
-      </c>
-    </row>
-    <row r="20" spans="11:11">
-      <c r="K20" s="84">
-        <v>7.3581937527330297</v>
-      </c>
-    </row>
-    <row r="21" spans="11:11">
-      <c r="K21" s="84">
-        <v>7.2806971953847404</v>
-      </c>
-    </row>
-    <row r="22" spans="11:11">
-      <c r="K22" s="84">
-        <v>7.3440728505730597</v>
-      </c>
-    </row>
-    <row r="23" spans="11:11">
-      <c r="K23" s="84">
-        <v>7.5527620842141401</v>
-      </c>
-    </row>
-    <row r="24" spans="11:11">
-      <c r="K24" s="84">
-        <v>7.9841219587029197</v>
-      </c>
-    </row>
-    <row r="25" spans="11:11">
-      <c r="K25" s="84">
-        <v>7.6638772587034696</v>
-      </c>
-    </row>
-    <row r="26" spans="11:11">
-      <c r="K26" s="84">
-        <v>7.4506607962115297</v>
-      </c>
-    </row>
-    <row r="27" spans="11:11">
-      <c r="K27" s="84">
-        <v>7.5527620842141401</v>
-      </c>
-    </row>
-    <row r="28" spans="11:11">
-      <c r="K28" s="84">
-        <v>7.2262090101006704</v>
-      </c>
-    </row>
-    <row r="29" spans="11:11">
-      <c r="K29" s="84">
-        <v>7.3944931072190299</v>
-      </c>
-    </row>
-    <row r="30" spans="11:11">
-      <c r="K30" s="84">
-        <v>7.5621616312256501</v>
-      </c>
-    </row>
-    <row r="31" spans="11:11">
-      <c r="K31" s="84">
-        <v>7.3827464497389101</v>
-      </c>
-    </row>
-    <row r="32" spans="11:11">
-      <c r="K32" s="84">
-        <v>7.2772477266314803</v>
-      </c>
-    </row>
-    <row r="33" spans="11:11">
-      <c r="K33" s="84">
-        <v>7.2896105214511602</v>
-      </c>
-    </row>
-    <row r="34" spans="11:11">
-      <c r="K34" s="84">
-        <v>7.6760099320288804</v>
-      </c>
-    </row>
-    <row r="35" spans="11:11">
-      <c r="K35" s="84">
-        <v>7.71289096149013</v>
-      </c>
-    </row>
-    <row r="36" spans="11:11">
-      <c r="K36" s="84">
-        <v>7.54855597916987</v>
-      </c>
-    </row>
-    <row r="37" spans="11:11">
-      <c r="K37" s="84">
-        <v>7.4036702900123696</v>
-      </c>
-    </row>
-    <row r="38" spans="11:11">
-      <c r="K38" s="84">
-        <v>7.9294865233142797</v>
-      </c>
-    </row>
-    <row r="39" spans="11:11">
-      <c r="K39" s="84">
-        <v>7.4073177104694103</v>
-      </c>
-    </row>
-    <row r="40" spans="11:11">
-      <c r="K40" s="84">
-        <v>7.4547199493639997</v>
-      </c>
-    </row>
-    <row r="41" spans="11:11">
-      <c r="K41" s="84">
-        <v>6.8575140625453903</v>
-      </c>
-    </row>
-    <row r="42" spans="11:11">
-      <c r="K42" s="84">
-        <v>7.2909747781429797</v>
-      </c>
-    </row>
-    <row r="43" spans="11:11">
-      <c r="K43" s="84">
-        <v>7.36201055125973</v>
-      </c>
-    </row>
-    <row r="44" spans="11:11">
-      <c r="K44" s="84">
-        <v>7.7349961940227798</v>
-      </c>
-    </row>
-    <row r="45" spans="11:11">
-      <c r="K45" s="84">
-        <v>6.92165818415112</v>
-      </c>
-    </row>
-    <row r="46" spans="11:11">
-      <c r="K46" s="84">
-        <v>7.3427791893318402</v>
-      </c>
-    </row>
-    <row r="47" spans="11:11">
-      <c r="K47" s="84">
-        <v>7.2930176797727801</v>
-      </c>
-    </row>
-    <row r="48" spans="11:11">
-      <c r="K48" s="84">
-        <v>7.6815603625595301</v>
-      </c>
-    </row>
-    <row r="49" spans="11:11">
-      <c r="K49" s="84">
-        <v>7.2786289423206796</v>
-      </c>
-    </row>
-    <row r="50" spans="11:11">
-      <c r="K50" s="84">
-        <v>7.1380730340443401</v>
-      </c>
-    </row>
-    <row r="51" spans="11:11">
-      <c r="K51" s="84">
-        <v>7.1853870155804103</v>
-      </c>
-    </row>
-    <row r="52" spans="11:11">
-      <c r="K52" s="84">
-        <v>7.8148034294893503</v>
-      </c>
-    </row>
-    <row r="53" spans="11:11">
-      <c r="K53" s="84">
-        <v>7.3330230143864803</v>
-      </c>
-    </row>
-    <row r="54" spans="11:11">
-      <c r="K54" s="84">
-        <v>7.2868764117506997</v>
-      </c>
-    </row>
-    <row r="55" spans="11:11">
-      <c r="K55" s="84">
-        <v>7.6857030612345403</v>
-      </c>
-    </row>
-    <row r="56" spans="11:11">
-      <c r="K56" s="84">
-        <v>7.3440728505730597</v>
-      </c>
-    </row>
-    <row r="57" spans="11:11">
-      <c r="K57" s="84">
-        <v>7.3251489579555704</v>
-      </c>
-    </row>
-    <row r="58" spans="11:11">
-      <c r="K58" s="84">
-        <v>7.3145528323240798</v>
-      </c>
-    </row>
-    <row r="59" spans="11:11">
-      <c r="K59" s="84">
-        <v>7.6014023345837298</v>
-      </c>
-    </row>
-    <row r="60" spans="11:11">
-      <c r="K60" s="84">
-        <v>7.4500795698074898</v>
-      </c>
-    </row>
-    <row r="61" spans="11:11">
-      <c r="K61" s="84">
-        <v>7.3524411002435803</v>
-      </c>
-    </row>
-    <row r="62" spans="11:11">
-      <c r="K62" s="84">
-        <v>7.2661287795564498</v>
-      </c>
-    </row>
-    <row r="63" spans="11:11">
-      <c r="K63" s="84">
-        <v>7.1853870155804103</v>
-      </c>
-    </row>
-    <row r="64" spans="11:11">
-      <c r="K64" s="84">
-        <v>7.5688956634069902</v>
-      </c>
-    </row>
-    <row r="65" spans="11:11">
-      <c r="K65" s="84">
-        <v>7.1412451223504902</v>
-      </c>
-    </row>
-    <row r="66" spans="11:11">
-      <c r="K66" s="84">
-        <v>7.3727463664043196</v>
-      </c>
-    </row>
-    <row r="67" spans="11:11">
-      <c r="K67" s="84">
-        <v>7.69666708152646</v>
-      </c>
-    </row>
-    <row r="68" spans="11:11">
-      <c r="K68" s="84">
-        <v>7.8834463541377398</v>
-      </c>
-    </row>
-    <row r="69" spans="11:11">
-      <c r="K69" s="84">
-        <v>7.4866133131399497</v>
-      </c>
-    </row>
-    <row r="70" spans="11:11">
-      <c r="K70" s="84">
-        <v>7.35883089834235</v>
-      </c>
-    </row>
-    <row r="71" spans="11:11">
-      <c r="K71" s="84">
-        <v>7.3498737047383296</v>
-      </c>
-    </row>
-    <row r="72" spans="11:11">
-      <c r="K72" s="84">
-        <v>7.4151751096132896</v>
-      </c>
-    </row>
-    <row r="73" spans="11:11">
-      <c r="K73" s="84">
-        <v>7.4139702901904396</v>
-      </c>
-    </row>
-    <row r="74" spans="11:11">
-      <c r="K74" s="84">
-        <v>7.6615270813585097</v>
-      </c>
-    </row>
-    <row r="75" spans="11:11">
-      <c r="K75" s="84">
-        <v>7.8355792466699601</v>
-      </c>
-    </row>
-    <row r="76" spans="11:11">
-      <c r="K76" s="84">
-        <v>7.2930176797727801</v>
-      </c>
-    </row>
-    <row r="77" spans="11:11">
-      <c r="K77" s="84">
-        <v>7.22548147278229</v>
-      </c>
-    </row>
-    <row r="78" spans="11:11">
-      <c r="K78" s="84">
-        <v>7.3689704021947904</v>
-      </c>
-    </row>
-    <row r="79" spans="11:11">
-      <c r="K79" s="84">
-        <v>7.2861917147023796</v>
-      </c>
-    </row>
-    <row r="80" spans="11:11">
-      <c r="K80" s="84">
-        <v>7.97968130238774</v>
-      </c>
-    </row>
-    <row r="81" spans="11:11">
-      <c r="K81" s="84">
-        <v>7.3777589082278698</v>
-      </c>
-    </row>
-    <row r="82" spans="11:11">
-      <c r="K82" s="84">
-        <v>7.4483338608974696</v>
-      </c>
-    </row>
-    <row r="83" spans="11:11">
-      <c r="K83" s="84">
-        <v>7.90691548867858</v>
-      </c>
-    </row>
-    <row r="84" spans="11:11">
-      <c r="K84" s="84">
-        <v>7.2086003379601902</v>
-      </c>
-    </row>
-    <row r="85" spans="11:11">
-      <c r="K85" s="84">
-        <v>6.5553568918106597</v>
-      </c>
-    </row>
-    <row r="86" spans="11:11">
-      <c r="K86" s="84">
-        <v>6.36990098282822</v>
-      </c>
-    </row>
-    <row r="87" spans="11:11">
-      <c r="K87" s="84">
-        <v>6.2245584292753602</v>
-      </c>
-    </row>
-    <row r="88" spans="11:11">
-      <c r="K88" s="84">
-        <v>5.8721177894754097</v>
-      </c>
-    </row>
-    <row r="89" spans="11:11">
-      <c r="K89" s="84">
-        <v>5.5645204073226902</v>
-      </c>
-    </row>
-    <row r="90" spans="11:11">
-      <c r="K90" s="84">
-        <v>5.3082676974011997</v>
-      </c>
-    </row>
-    <row r="91" spans="11:11">
-      <c r="K91" s="84">
-        <v>5.1059454739005803</v>
-      </c>
-    </row>
-    <row r="92" spans="11:11">
-      <c r="K92" s="84">
-        <v>4.8283137373022997</v>
-      </c>
-    </row>
-    <row r="93" spans="11:11">
-      <c r="K93" s="84">
-        <v>4.5643481914678299</v>
-      </c>
-    </row>
-    <row r="94" spans="11:11">
-      <c r="K94" s="84">
-        <v>4.4188406077965903</v>
-      </c>
-    </row>
-    <row r="95" spans="11:11">
-      <c r="K95" s="84">
-        <v>4.27666611901605</v>
-      </c>
-    </row>
-    <row r="96" spans="11:11">
-      <c r="K96" s="84">
-        <v>4.1588830833596697</v>
-      </c>
-    </row>
-    <row r="97" spans="11:11">
-      <c r="K97" s="84">
-        <v>4.0604430105464102</v>
-      </c>
-    </row>
-    <row r="98" spans="11:11">
-      <c r="K98" s="84">
-        <v>3.9702919135521202</v>
-      </c>
-    </row>
-    <row r="99" spans="11:11">
-      <c r="K99" s="84">
-        <v>3.8286413964890902</v>
-      </c>
-    </row>
-    <row r="100" spans="11:11">
-      <c r="K100" s="84">
-        <v>3.7135720667043</v>
-      </c>
-    </row>
-    <row r="101" spans="11:11">
-      <c r="K101" s="84">
-        <v>3.5835189384561099</v>
-      </c>
-    </row>
-    <row r="102" spans="11:11">
-      <c r="K102" s="84">
-        <v>3.4965075614664798</v>
-      </c>
-    </row>
-    <row r="103" spans="11:11">
-      <c r="K103" s="84">
-        <v>3.4657359027997199</v>
-      </c>
-    </row>
-    <row r="104" spans="11:11">
-      <c r="K104" s="84">
-        <v>3.3322045101751998</v>
-      </c>
-    </row>
-    <row r="105" spans="11:11">
-      <c r="K105" s="84">
-        <v>3.2958368660043198</v>
-      </c>
-    </row>
-    <row r="106" spans="11:11">
-      <c r="K106" s="84">
-        <v>3.17805383034794</v>
-      </c>
-    </row>
-    <row r="107" spans="11:11">
-      <c r="K107" s="84">
-        <v>3.0910424533583098</v>
-      </c>
-    </row>
-    <row r="108" spans="11:11">
-      <c r="K108" s="84">
-        <v>3.0445224377234199</v>
-      </c>
-    </row>
-    <row r="109" spans="11:11">
-      <c r="K109" s="84">
-        <v>3.0445224377234199</v>
-      </c>
-    </row>
-    <row r="110" spans="11:11">
-      <c r="K110" s="84">
-        <v>2.9444389791664398</v>
-      </c>
-    </row>
-    <row r="111" spans="11:11">
-      <c r="K111" s="84">
-        <v>2.9444389791664398</v>
-      </c>
-    </row>
-    <row r="112" spans="11:11">
-      <c r="K112" s="84">
-        <v>2.8903717578961601</v>
-      </c>
-    </row>
-    <row r="113" spans="11:11">
-      <c r="K113" s="84">
-        <v>2.8332133440562099</v>
-      </c>
-    </row>
-    <row r="114" spans="11:11">
-      <c r="K114" s="84">
-        <v>2.7725887222397798</v>
-      </c>
-    </row>
-    <row r="115" spans="11:11">
-      <c r="K115" s="84">
-        <v>2.7725887222397798</v>
-      </c>
-    </row>
-    <row r="116" spans="11:11">
-      <c r="K116" s="84">
-        <v>2.7080502011022101</v>
-      </c>
-    </row>
-    <row r="117" spans="11:11">
-      <c r="K117" s="84">
-        <v>2.63905732961525</v>
-      </c>
-    </row>
-    <row r="118" spans="11:11">
-      <c r="K118" s="84">
-        <v>2.5649493574615301</v>
-      </c>
-    </row>
-    <row r="119" spans="11:11">
-      <c r="K119" s="84">
-        <v>2.5649493574615301</v>
-      </c>
-    </row>
-    <row r="120" spans="11:11">
-      <c r="K120" s="84">
-        <v>2.5649493574615301</v>
-      </c>
-    </row>
-    <row r="121" spans="11:11">
-      <c r="K121" s="84">
-        <v>2.5649493574615301</v>
-      </c>
-    </row>
-    <row r="122" spans="11:11">
-      <c r="K122" s="84">
-        <v>2.5649493574615301</v>
-      </c>
-    </row>
-    <row r="123" spans="11:11">
-      <c r="K123" s="84">
-        <v>2.4849066497879999</v>
-      </c>
-    </row>
-    <row r="124" spans="11:11">
-      <c r="K124" s="84">
-        <v>2.4849066497879999</v>
-      </c>
-    </row>
-    <row r="125" spans="11:11">
-      <c r="K125" s="84">
-        <v>2.3978952727983698</v>
-      </c>
-    </row>
-    <row r="126" spans="11:11">
-      <c r="K126" s="84">
-        <v>2.3978952727983698</v>
-      </c>
-    </row>
-    <row r="127" spans="11:11">
-      <c r="K127" s="84">
-        <v>2.3978952727983698</v>
-      </c>
-    </row>
-    <row r="128" spans="11:11">
-      <c r="K128" s="84">
-        <v>2.3025850929940401</v>
-      </c>
-    </row>
-    <row r="129" spans="11:11">
-      <c r="K129" s="84">
-        <v>2.3025850929940401</v>
-      </c>
-    </row>
-    <row r="130" spans="11:11">
-      <c r="K130" s="84">
-        <v>2.3025850929940401</v>
-      </c>
-    </row>
-    <row r="131" spans="11:11">
-      <c r="K131" s="84">
-        <v>2.3025850929940401</v>
-      </c>
-    </row>
-    <row r="132" spans="11:11">
-      <c r="K132" s="84">
-        <v>2.3025850929940401</v>
-      </c>
-    </row>
-    <row r="133" spans="11:11">
-      <c r="K133" s="84">
-        <v>2.1972245773362098</v>
-      </c>
-    </row>
-    <row r="134" spans="11:11">
-      <c r="K134" s="84">
-        <v>2.1972245773362098</v>
-      </c>
-    </row>
-    <row r="135" spans="11:11">
-      <c r="K135" s="84">
-        <v>2.1972245773362098</v>
-      </c>
-    </row>
-    <row r="136" spans="11:11">
-      <c r="K136" s="84">
-        <v>2.1972245773362098</v>
-      </c>
-    </row>
-    <row r="137" spans="11:11">
-      <c r="K137" s="84">
-        <v>2.1972245773362098</v>
-      </c>
-    </row>
-    <row r="138" spans="11:11">
-      <c r="K138" s="84">
-        <v>2.1972245773362098</v>
-      </c>
-    </row>
-    <row r="139" spans="11:11">
-      <c r="K139" s="84">
-        <v>2.1972245773362098</v>
-      </c>
-    </row>
-    <row r="140" spans="11:11">
-      <c r="K140" s="84">
-        <v>2.07944154167983</v>
-      </c>
-    </row>
-    <row r="141" spans="11:11">
-      <c r="K141" s="84">
-        <v>2.07944154167983</v>
-      </c>
-    </row>
-    <row r="142" spans="11:11">
-      <c r="K142" s="84">
-        <v>2.07944154167983</v>
-      </c>
-    </row>
-    <row r="143" spans="11:11">
-      <c r="K143" s="84">
-        <v>2.07944154167983</v>
-      </c>
-    </row>
-    <row r="144" spans="11:11">
-      <c r="K144" s="84">
-        <v>2.07944154167983</v>
-      </c>
-    </row>
-    <row r="145" spans="11:11">
-      <c r="K145" s="84">
-        <v>2.07944154167983</v>
-      </c>
-    </row>
-    <row r="146" spans="11:11">
-      <c r="K146" s="84">
-        <v>2.07944154167983</v>
-      </c>
-    </row>
-    <row r="147" spans="11:11">
-      <c r="K147" s="84">
-        <v>1.9459101490553099</v>
-      </c>
-    </row>
-    <row r="148" spans="11:11">
-      <c r="K148" s="84">
-        <v>2.07944154167983</v>
-      </c>
-    </row>
-    <row r="149" spans="11:11">
-      <c r="K149" s="84">
-        <v>1.9459101490553099</v>
-      </c>
-    </row>
-    <row r="150" spans="11:11">
-      <c r="K150" s="84">
-        <v>1.9459101490553099</v>
-      </c>
-    </row>
-    <row r="151" spans="11:11">
-      <c r="K151" s="84">
-        <v>2.07944154167983</v>
-      </c>
-    </row>
-    <row r="152" spans="11:11">
-      <c r="K152" s="84">
-        <v>2.07944154167983</v>
-      </c>
-    </row>
-    <row r="153" spans="11:11">
-      <c r="K153" s="84">
-        <v>2.07944154167983</v>
-      </c>
-    </row>
-    <row r="154" spans="11:11">
-      <c r="K154" s="84">
-        <v>2.07944154167983</v>
-      </c>
-    </row>
-    <row r="155" spans="11:11">
-      <c r="K155" s="84">
-        <v>1.9459101490553099</v>
-      </c>
-    </row>
-    <row r="156" spans="11:11">
-      <c r="K156" s="84">
-        <v>1.9459101490553099</v>
-      </c>
-    </row>
-    <row r="157" spans="11:11">
-      <c r="K157" s="84">
-        <v>1.9459101490553099</v>
-      </c>
-    </row>
-    <row r="158" spans="11:11">
-      <c r="K158" s="84">
-        <v>1.9459101490553099</v>
-      </c>
-    </row>
-    <row r="159" spans="11:11">
-      <c r="K159" s="84">
-        <v>1.9459101490553099</v>
-      </c>
-    </row>
-    <row r="160" spans="11:11">
-      <c r="K160" s="84">
-        <v>1.9459101490553099</v>
-      </c>
-    </row>
-    <row r="161" spans="11:11">
-      <c r="K161" s="84">
-        <v>1.9459101490553099</v>
-      </c>
-    </row>
-    <row r="162" spans="11:11">
-      <c r="K162" s="84">
-        <v>1.9459101490553099</v>
-      </c>
-    </row>
-    <row r="163" spans="11:11">
-      <c r="K163" s="84">
-        <v>1.7917594692280501</v>
-      </c>
-    </row>
-    <row r="164" spans="11:11">
-      <c r="K164" s="84">
-        <v>1.7917594692280501</v>
-      </c>
-    </row>
-    <row r="165" spans="11:11">
-      <c r="K165" s="84">
-        <v>1.7917594692280501</v>
-      </c>
-    </row>
-    <row r="166" spans="11:11">
-      <c r="K166" s="84">
-        <v>1.9459101490553099</v>
-      </c>
-    </row>
-    <row r="167" spans="11:11">
-      <c r="K167" s="84">
-        <v>1.9459101490553099</v>
-      </c>
-    </row>
-    <row r="168" spans="11:11">
-      <c r="K168" s="84">
-        <v>1.9459101490553099</v>
-      </c>
-    </row>
-    <row r="169" spans="11:11">
-      <c r="K169" s="84">
-        <v>1.9459101490553099</v>
-      </c>
-    </row>
-    <row r="170" spans="11:11">
-      <c r="K170" s="84">
-        <v>1.9459101490553099</v>
-      </c>
-    </row>
-    <row r="171" spans="11:11">
-      <c r="K171" s="84">
-        <v>1.9459101490553099</v>
-      </c>
-    </row>
-    <row r="172" spans="11:11">
-      <c r="K172" s="84">
-        <v>1.9459101490553099</v>
-      </c>
-    </row>
-    <row r="173" spans="11:11">
-      <c r="K173" s="84">
-        <v>1.9459101490553099</v>
-      </c>
-    </row>
-    <row r="174" spans="11:11">
-      <c r="K174" s="84">
-        <v>1.9459101490553099</v>
-      </c>
-    </row>
-    <row r="175" spans="11:11">
-      <c r="K175" s="84">
-        <v>1.9459101490553099</v>
-      </c>
-    </row>
-    <row r="176" spans="11:11">
-      <c r="K176" s="84">
-        <v>1.9459101490553099</v>
-      </c>
-    </row>
-    <row r="177" spans="11:11">
-      <c r="K177" s="84">
-        <v>1.9459101490553099</v>
-      </c>
-    </row>
-    <row r="178" spans="11:11">
-      <c r="K178" s="84">
-        <v>1.9459101490553099</v>
-      </c>
-    </row>
-    <row r="179" spans="11:11">
-      <c r="K179" s="84">
-        <v>1.9459101490553099</v>
-      </c>
-    </row>
-    <row r="180" spans="11:11">
-      <c r="K180" s="84">
-        <v>1.9459101490553099</v>
-      </c>
-    </row>
-    <row r="181" spans="11:11">
-      <c r="K181" s="84">
-        <v>1.7917594692280501</v>
+    <row r="27" spans="2:3">
+      <c r="B27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="35.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" s="86" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="86" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="86" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="86" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" s="86" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>0.04</v>
+      </c>
+      <c r="D3">
+        <v>0.67</v>
+      </c>
+      <c r="E3">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="F3">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.67</v>
+      </c>
+      <c r="E4">
+        <v>3.4999999999999997E-5</v>
+      </c>
+      <c r="F4">
+        <v>0.98899999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5">
+        <v>0.04</v>
+      </c>
+      <c r="D5">
+        <v>0.67</v>
+      </c>
+      <c r="E5">
+        <v>4.3999999999999999E-5</v>
+      </c>
+      <c r="F5">
+        <v>0.98699999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="D6">
+        <v>0.67</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.98299999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D7">
+        <v>0.69</v>
+      </c>
+      <c r="E7">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="F7">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8">
+        <v>0.05</v>
+      </c>
+      <c r="D8">
+        <v>0.64</v>
+      </c>
+      <c r="E8">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="F8">
+        <v>0.98499999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="4:4">
+      <c r="D85">
+        <v>1.1164723695000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/comparison.xlsx
+++ b/comparison.xlsx
@@ -669,7 +669,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -1396,6 +1396,36 @@
     <xf numFmtId="49" fontId="11" fillId="7" borderId="20" xfId="23" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="9" xfId="24" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="6" xfId="24" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="23" xfId="24" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="3" xfId="5" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="10" xfId="24" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="11" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1423,12 +1453,6 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="6" xfId="24" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="10" xfId="24" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1438,30 +1462,6 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="9" xfId="24" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="23" xfId="24" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="3" xfId="5" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="199">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
@@ -1963,11 +1963,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2105735672"/>
-        <c:axId val="2102368280"/>
+        <c:axId val="2066505016"/>
+        <c:axId val="2052213720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2105735672"/>
+        <c:axId val="2066505016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1976,7 +1976,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102368280"/>
+        <c:crossAx val="2052213720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1984,7 +1984,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2102368280"/>
+        <c:axId val="2052213720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1995,14 +1995,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2105735672"/>
+        <c:crossAx val="2066505016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2323,11 +2322,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2110378104"/>
-        <c:axId val="2110407000"/>
+        <c:axId val="2081793528"/>
+        <c:axId val="2081515368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2110378104"/>
+        <c:axId val="2081793528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2336,7 +2335,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110407000"/>
+        <c:crossAx val="2081515368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2344,7 +2343,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2110407000"/>
+        <c:axId val="2081515368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2355,7 +2354,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110378104"/>
+        <c:crossAx val="2081793528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2802,84 +2801,84 @@
   <sheetData>
     <row r="1" spans="1:59" s="7" customFormat="1" thickBot="1">
       <c r="A1"/>
-      <c r="B1" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="79" t="s">
+      <c r="B1" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="81" t="s">
+      <c r="D1" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="80" t="s">
+      <c r="E1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="80"/>
-      <c r="G1" s="82" t="s">
+      <c r="F1" s="70"/>
+      <c r="G1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="80" t="s">
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="63" t="s">
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="64"/>
-      <c r="AC1" s="64"/>
-      <c r="AD1" s="64"/>
-      <c r="AE1" s="64"/>
-      <c r="AF1" s="64"/>
-      <c r="AG1" s="75"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="85"/>
       <c r="AH1" s="12"/>
       <c r="AI1" s="12"/>
-      <c r="AJ1" s="64" t="s">
+      <c r="AJ1" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="64"/>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="64"/>
-      <c r="AO1" s="64"/>
-      <c r="AP1" s="64"/>
-      <c r="AQ1" s="64"/>
-      <c r="AR1" s="64"/>
-      <c r="AS1" s="64"/>
-      <c r="AT1" s="64"/>
-      <c r="AU1" s="64"/>
-      <c r="AV1" s="65"/>
-      <c r="AW1" s="63" t="s">
+      <c r="AK1" s="76"/>
+      <c r="AL1" s="76"/>
+      <c r="AM1" s="76"/>
+      <c r="AN1" s="76"/>
+      <c r="AO1" s="76"/>
+      <c r="AP1" s="76"/>
+      <c r="AQ1" s="76"/>
+      <c r="AR1" s="76"/>
+      <c r="AS1" s="76"/>
+      <c r="AT1" s="76"/>
+      <c r="AU1" s="76"/>
+      <c r="AV1" s="77"/>
+      <c r="AW1" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="AX1" s="64"/>
-      <c r="AY1" s="65"/>
-      <c r="AZ1" s="63" t="s">
+      <c r="AX1" s="76"/>
+      <c r="AY1" s="77"/>
+      <c r="AZ1" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="BA1" s="64"/>
-      <c r="BB1" s="65"/>
-      <c r="BC1" s="63" t="s">
+      <c r="BA1" s="76"/>
+      <c r="BB1" s="77"/>
+      <c r="BC1" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="BD1" s="64"/>
-      <c r="BE1" s="65"/>
+      <c r="BD1" s="76"/>
+      <c r="BE1" s="77"/>
       <c r="BF1" s="7" t="s">
         <v>8</v>
       </c>
@@ -2889,104 +2888,104 @@
     </row>
     <row r="2" spans="1:59" s="8" customFormat="1" ht="22" thickTop="1" thickBot="1">
       <c r="A2"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83" t="s">
+      <c r="F2" s="74"/>
+      <c r="G2" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83" t="s">
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="69" t="s">
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="N2" s="70"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="77" t="s">
+      <c r="N2" s="82"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="69" t="s">
+      <c r="Q2" s="67"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="T2" s="71"/>
-      <c r="U2" s="77" t="s">
+      <c r="T2" s="83"/>
+      <c r="U2" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="V2" s="72"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="69" t="s">
+      <c r="V2" s="67"/>
+      <c r="W2" s="72"/>
+      <c r="X2" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="Y2" s="71"/>
-      <c r="Z2" s="77" t="s">
+      <c r="Y2" s="83"/>
+      <c r="Z2" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="AA2" s="72"/>
-      <c r="AB2" s="73"/>
-      <c r="AC2" s="76" t="s">
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="72"/>
+      <c r="AC2" s="86" t="s">
         <v>103</v>
       </c>
-      <c r="AD2" s="71"/>
-      <c r="AE2" s="77" t="s">
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="AF2" s="72"/>
-      <c r="AG2" s="78"/>
-      <c r="AH2" s="74" t="s">
+      <c r="AF2" s="67"/>
+      <c r="AG2" s="68"/>
+      <c r="AH2" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="AI2" s="70"/>
-      <c r="AJ2" s="72" t="s">
+      <c r="AI2" s="82"/>
+      <c r="AJ2" s="67" t="s">
         <v>83</v>
       </c>
-      <c r="AK2" s="72"/>
-      <c r="AL2" s="73"/>
+      <c r="AK2" s="67"/>
+      <c r="AL2" s="72"/>
       <c r="AM2" s="44"/>
       <c r="AN2" s="44"/>
-      <c r="AO2" s="66" t="s">
+      <c r="AO2" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="AP2" s="67"/>
-      <c r="AQ2" s="68"/>
+      <c r="AP2" s="79"/>
+      <c r="AQ2" s="80"/>
       <c r="AR2" s="11"/>
       <c r="AS2" s="11"/>
-      <c r="AT2" s="66" t="s">
+      <c r="AT2" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="AU2" s="67"/>
-      <c r="AV2" s="68"/>
-      <c r="AW2" s="66" t="s">
+      <c r="AU2" s="79"/>
+      <c r="AV2" s="80"/>
+      <c r="AW2" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="AX2" s="67"/>
-      <c r="AY2" s="68"/>
-      <c r="AZ2" s="66" t="s">
+      <c r="AX2" s="79"/>
+      <c r="AY2" s="80"/>
+      <c r="AZ2" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="BA2" s="67"/>
-      <c r="BB2" s="68"/>
-      <c r="BC2" s="66" t="s">
+      <c r="BA2" s="79"/>
+      <c r="BB2" s="80"/>
+      <c r="BC2" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="BD2" s="67"/>
-      <c r="BE2" s="68"/>
+      <c r="BD2" s="79"/>
+      <c r="BE2" s="80"/>
     </row>
     <row r="3" spans="1:59" s="8" customFormat="1" ht="22" thickTop="1" thickBot="1">
       <c r="A3"/>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="81"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="71"/>
       <c r="E3" s="8">
         <v>10</v>
       </c>
@@ -5668,19 +5667,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="AE2:AG2"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="J2:L2"/>
     <mergeCell ref="AZ1:BB1"/>
     <mergeCell ref="AZ2:BB2"/>
     <mergeCell ref="BC1:BE1"/>
@@ -5697,6 +5683,19 @@
     <mergeCell ref="AT2:AV2"/>
     <mergeCell ref="AW1:AY1"/>
     <mergeCell ref="AW2:AY2"/>
+    <mergeCell ref="AE2:AG2"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="J2:L2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5719,14 +5718,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
-    <col min="9" max="9" width="10.25" style="85" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.25" style="64" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.375" style="84" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.375" style="63" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12">
-      <c r="I1" s="85" t="e">
+      <c r="I1" s="64" t="e">
         <f>AVERAGE(K:K)</f>
         <v>#DIV/0!</v>
       </c>
@@ -5912,7 +5911,7 @@
   <dimension ref="B2:F85"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -5922,19 +5921,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="D2" s="86" t="s">
+      <c r="D2" s="65" t="s">
         <v>118</v>
       </c>
-      <c r="E2" s="86" t="s">
+      <c r="E2" s="65" t="s">
         <v>119</v>
       </c>
-      <c r="F2" s="86" t="s">
+      <c r="F2" s="65" t="s">
         <v>120</v>
       </c>
     </row>
